--- a/reports/RESULTS.xlsx
+++ b/reports/RESULTS.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -735,6 +735,729 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="n">
+        <v>128</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" t="n">
+        <v>128</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>BCEWithLogitsLoss</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>93.42105263157895</v>
+      </c>
+      <c r="K7" t="n">
+        <v>53.84615384615385</v>
+      </c>
+      <c r="L7" t="n">
+        <v>73.07692307692308</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>2024-05-07_18-35-41</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="n">
+        <v>128</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" t="n">
+        <v>128</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>BCEWithLogitsLoss</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>50</v>
+      </c>
+      <c r="K8" t="n">
+        <v>50</v>
+      </c>
+      <c r="L8" t="n">
+        <v>50</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>2024-05-07_18-37-54</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="n">
+        <v>128</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" t="n">
+        <v>128</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>BCEWithLogitsLoss</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>46.05263157894737</v>
+      </c>
+      <c r="K9" t="n">
+        <v>50</v>
+      </c>
+      <c r="L9" t="n">
+        <v>50</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>2024-05-07_18-39-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="n">
+        <v>128</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" t="n">
+        <v>128</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>BCEWithLogitsLoss</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>50</v>
+      </c>
+      <c r="K10" t="n">
+        <v>50</v>
+      </c>
+      <c r="L10" t="n">
+        <v>50</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>2024-05-07_18-40-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="n">
+        <v>128</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" t="n">
+        <v>128</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>BCEWithLogitsLoss</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>50</v>
+      </c>
+      <c r="K11" t="n">
+        <v>50</v>
+      </c>
+      <c r="L11" t="n">
+        <v>50</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>2024-05-07_18-41-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>2</v>
+      </c>
+      <c r="B12" t="n">
+        <v>128</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" t="n">
+        <v>128</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>BCEWithLogitsLoss</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>76.31578947368421</v>
+      </c>
+      <c r="K12" t="n">
+        <v>61.53846153846154</v>
+      </c>
+      <c r="L12" t="n">
+        <v>61.53846153846154</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>2024-05-07_18-42-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2</v>
+      </c>
+      <c r="B13" t="n">
+        <v>128</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" t="n">
+        <v>128</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>BCEWithLogitsLoss</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>64.47368421052632</v>
+      </c>
+      <c r="K13" t="n">
+        <v>50</v>
+      </c>
+      <c r="L13" t="n">
+        <v>46.15384615384615</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>2024-05-07_18-43-35</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>2</v>
+      </c>
+      <c r="B14" t="n">
+        <v>128</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" t="n">
+        <v>128</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>BCEWithLogitsLoss</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>50</v>
+      </c>
+      <c r="K14" t="n">
+        <v>53.84615384615385</v>
+      </c>
+      <c r="L14" t="n">
+        <v>50</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>2024-05-07_18-44-43</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>2</v>
+      </c>
+      <c r="B15" t="n">
+        <v>128</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2</v>
+      </c>
+      <c r="E15" t="n">
+        <v>128</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>BCEWithLogitsLoss</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>64.47368421052632</v>
+      </c>
+      <c r="K15" t="n">
+        <v>50</v>
+      </c>
+      <c r="L15" t="n">
+        <v>50</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>2024-05-07_18-45-51</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>2</v>
+      </c>
+      <c r="B16" t="n">
+        <v>128</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E16" t="n">
+        <v>128</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>BCEWithLogitsLoss</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>50</v>
+      </c>
+      <c r="K16" t="n">
+        <v>50</v>
+      </c>
+      <c r="L16" t="n">
+        <v>50</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>2024-05-07_18-46-59</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2</v>
+      </c>
+      <c r="B17" t="n">
+        <v>128</v>
+      </c>
+      <c r="C17" t="n">
+        <v>3</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" t="n">
+        <v>128</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>BCEWithLogitsLoss</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>50</v>
+      </c>
+      <c r="K17" t="n">
+        <v>50</v>
+      </c>
+      <c r="L17" t="n">
+        <v>50</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>2024-05-07_18-48-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>2</v>
+      </c>
+      <c r="B18" t="n">
+        <v>128</v>
+      </c>
+      <c r="C18" t="n">
+        <v>3</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2</v>
+      </c>
+      <c r="E18" t="n">
+        <v>128</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>BCEWithLogitsLoss</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>50</v>
+      </c>
+      <c r="K18" t="n">
+        <v>50</v>
+      </c>
+      <c r="L18" t="n">
+        <v>50</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>2024-05-07_19-18-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>2</v>
+      </c>
+      <c r="B19" t="n">
+        <v>32</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2</v>
+      </c>
+      <c r="E19" t="n">
+        <v>128</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>BCEWithLogitsLoss</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>68.42105263157895</v>
+      </c>
+      <c r="K19" t="n">
+        <v>53.84615384615385</v>
+      </c>
+      <c r="L19" t="n">
+        <v>57.69230769230769</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>2024-05-08_09-02-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>2</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="C20" t="n">
+        <v>10</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>48.68421052631579</v>
+      </c>
+      <c r="F20" t="n">
+        <v>50</v>
+      </c>
+      <c r="G20" t="n">
+        <v>50</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2024-05-08_09-21-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>2</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="C21" t="n">
+        <v>10</v>
+      </c>
+      <c r="D21" t="n">
+        <v>4</v>
+      </c>
+      <c r="E21" t="n">
+        <v>55.26315789473684</v>
+      </c>
+      <c r="F21" t="n">
+        <v>50</v>
+      </c>
+      <c r="G21" t="n">
+        <v>69.23076923076923</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2024-05-08_11-30-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C22" t="n">
+        <v>5</v>
+      </c>
+      <c r="D22" t="n">
+        <v>4</v>
+      </c>
+      <c r="E22" t="n">
+        <v>44.73684210526316</v>
+      </c>
+      <c r="F22" t="n">
+        <v>50</v>
+      </c>
+      <c r="G22" t="n">
+        <v>50</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2024-05-08_12-39-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="C23" t="n">
+        <v>20</v>
+      </c>
+      <c r="D23" t="n">
+        <v>4</v>
+      </c>
+      <c r="E23" t="n">
+        <v>46.05263157894737</v>
+      </c>
+      <c r="F23" t="n">
+        <v>50</v>
+      </c>
+      <c r="G23" t="n">
+        <v>65.38461538461539</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2024-05-08_18-58-47</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/reports/RESULTS.xlsx
+++ b/reports/RESULTS.xlsx
@@ -2,28 +2,37 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="4149" yWindow="4149" windowWidth="26331" windowHeight="13054" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
     </font>
     <font>
       <b val="1"/>
@@ -37,12 +46,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -55,14 +79,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -425,78 +455,98 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.23046875" defaultRowHeight="14.6"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>num_classes</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>lr</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>init_filters</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>kernel_size</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>stride</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>num_fc_units</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>optimizer</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>loss_criterion</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>num_epochs</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>batch_size</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Training Accuracy</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>Validation Accuracy</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Test Accuracy</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>DATETIME</t>
+        </is>
+      </c>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>image_type</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="inlineStr">
+        <is>
+          <t>patience</t>
+        </is>
+      </c>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Description</t>
         </is>
       </c>
     </row>
@@ -504,36 +554,34 @@
       <c r="A2" t="n">
         <v>2</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="n">
         <v>32</v>
       </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
-        <v>128</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Adam</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="F2" t="n">
+        <v>128</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>BCEWithLogitsLoss</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>BCEWithLogitsLoss</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
         <v>10</v>
       </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
       <c r="J2" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
         <v>50</v>
@@ -541,187 +589,203 @@
       <c r="L2" t="n">
         <v>50</v>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="M2" t="n">
+        <v>50</v>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>2024-05-06_14-58-47</t>
         </is>
       </c>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="n">
         <v>32</v>
       </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" t="n">
-        <v>128</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Adam</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="F3" t="n">
+        <v>128</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>BCEWithLogitsLoss</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>BCEWithLogitsLoss</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
         <v>10</v>
       </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
       <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
         <v>52.63157894736842</v>
       </c>
-      <c r="K3" t="n">
-        <v>50</v>
-      </c>
       <c r="L3" t="n">
         <v>50</v>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="M3" t="n">
+        <v>50</v>
+      </c>
+      <c r="N3" t="inlineStr">
         <is>
           <t>2024-05-06_15-03-44</t>
         </is>
       </c>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="n">
         <v>32</v>
       </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>128</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Adam</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="F4" t="n">
+        <v>128</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>BCEWithLogitsLoss</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>BCEWithLogitsLoss</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
         <v>10</v>
       </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
       <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
         <v>67.10526315789474</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>57.69230769230769</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>53.84615384615385</v>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2024-05-06_16-19-59</t>
         </is>
       </c>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>2</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="n">
         <v>32</v>
       </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>128</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Adam</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="F5" t="n">
+        <v>128</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>BCEWithLogitsLoss</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>BCEWithLogitsLoss</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
         <v>10</v>
       </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
       <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
         <v>61.8421052631579</v>
       </c>
-      <c r="K5" t="n">
-        <v>50</v>
-      </c>
       <c r="L5" t="n">
         <v>50</v>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="M5" t="n">
+        <v>50</v>
+      </c>
+      <c r="N5" t="inlineStr">
         <is>
           <t>2024-05-06_16-23-59</t>
         </is>
       </c>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>2</v>
       </c>
-      <c r="B6" t="n">
-        <v>128</v>
-      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>128</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>128</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Adam</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="F6" t="n">
+        <v>128</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>BCEWithLogitsLoss</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>BCEWithLogitsLoss</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
         <v>10</v>
       </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
       <c r="J6" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
         <v>50</v>
@@ -729,93 +793,101 @@
       <c r="L6" t="n">
         <v>50</v>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="M6" t="n">
+        <v>50</v>
+      </c>
+      <c r="N6" t="inlineStr">
         <is>
           <t>2024-05-06_16-30-55</t>
         </is>
       </c>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>2</v>
       </c>
-      <c r="B7" t="n">
-        <v>128</v>
-      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>128</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
-        <v>128</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Adam</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="F7" t="n">
+        <v>128</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>BCEWithLogitsLoss</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>BCEWithLogitsLoss</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
         <v>10</v>
       </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
       <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
         <v>93.42105263157895</v>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>53.84615384615385</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" t="n">
         <v>73.07692307692308</v>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2024-05-07_18-35-41</t>
         </is>
       </c>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>2</v>
       </c>
-      <c r="B8" t="n">
-        <v>128</v>
-      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>128</v>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8" t="n">
-        <v>128</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Adam</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="F8" t="n">
+        <v>128</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>BCEWithLogitsLoss</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>BCEWithLogitsLoss</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
         <v>10</v>
       </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
       <c r="J8" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
         <v>50</v>
@@ -823,93 +895,101 @@
       <c r="L8" t="n">
         <v>50</v>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="M8" t="n">
+        <v>50</v>
+      </c>
+      <c r="N8" t="inlineStr">
         <is>
           <t>2024-05-07_18-37-54</t>
         </is>
       </c>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>2</v>
       </c>
-      <c r="B9" t="n">
-        <v>128</v>
-      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>128</v>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9" t="n">
-        <v>128</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Adam</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="F9" t="n">
+        <v>128</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>BCEWithLogitsLoss</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>BCEWithLogitsLoss</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
         <v>10</v>
       </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
       <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
         <v>46.05263157894737</v>
       </c>
-      <c r="K9" t="n">
-        <v>50</v>
-      </c>
       <c r="L9" t="n">
         <v>50</v>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="M9" t="n">
+        <v>50</v>
+      </c>
+      <c r="N9" t="inlineStr">
         <is>
           <t>2024-05-07_18-39-03</t>
         </is>
       </c>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>2</v>
       </c>
-      <c r="B10" t="n">
-        <v>128</v>
-      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>128</v>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10" t="n">
-        <v>128</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Adam</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="F10" t="n">
+        <v>128</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>BCEWithLogitsLoss</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>BCEWithLogitsLoss</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
         <v>10</v>
       </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
       <c r="J10" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>50</v>
@@ -917,46 +997,50 @@
       <c r="L10" t="n">
         <v>50</v>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="M10" t="n">
+        <v>50</v>
+      </c>
+      <c r="N10" t="inlineStr">
         <is>
           <t>2024-05-07_18-40-10</t>
         </is>
       </c>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>2</v>
       </c>
-      <c r="B11" t="n">
-        <v>128</v>
-      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>128</v>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E11" t="n">
-        <v>128</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Adam</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="F11" t="n">
+        <v>128</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>BCEWithLogitsLoss</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>BCEWithLogitsLoss</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
         <v>10</v>
       </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
       <c r="J11" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
         <v>50</v>
@@ -964,234 +1048,254 @@
       <c r="L11" t="n">
         <v>50</v>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="M11" t="n">
+        <v>50</v>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>2024-05-07_18-41-19</t>
         </is>
       </c>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>2</v>
       </c>
-      <c r="B12" t="n">
-        <v>128</v>
-      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>128</v>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E12" t="n">
-        <v>128</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Adam</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="F12" t="n">
+        <v>128</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>BCEWithLogitsLoss</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>BCEWithLogitsLoss</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
         <v>10</v>
       </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
       <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
         <v>76.31578947368421</v>
-      </c>
-      <c r="K12" t="n">
-        <v>61.53846153846154</v>
       </c>
       <c r="L12" t="n">
         <v>61.53846153846154</v>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="M12" t="n">
+        <v>61.53846153846154</v>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>2024-05-07_18-42-27</t>
         </is>
       </c>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>2</v>
       </c>
-      <c r="B13" t="n">
-        <v>128</v>
-      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>128</v>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E13" t="n">
-        <v>128</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Adam</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="F13" t="n">
+        <v>128</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>BCEWithLogitsLoss</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>BCEWithLogitsLoss</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
         <v>10</v>
       </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
       <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
         <v>64.47368421052632</v>
       </c>
-      <c r="K13" t="n">
-        <v>50</v>
-      </c>
       <c r="L13" t="n">
+        <v>50</v>
+      </c>
+      <c r="M13" t="n">
         <v>46.15384615384615</v>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>2024-05-07_18-43-35</t>
         </is>
       </c>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>2</v>
       </c>
-      <c r="B14" t="n">
-        <v>128</v>
-      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>128</v>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E14" t="n">
-        <v>128</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Adam</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="F14" t="n">
+        <v>128</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>BCEWithLogitsLoss</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>BCEWithLogitsLoss</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
         <v>10</v>
       </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
       <c r="J14" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
+        <v>50</v>
+      </c>
+      <c r="L14" t="n">
         <v>53.84615384615385</v>
       </c>
-      <c r="L14" t="n">
-        <v>50</v>
-      </c>
-      <c r="M14" t="inlineStr">
+      <c r="M14" t="n">
+        <v>50</v>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>2024-05-07_18-44-43</t>
         </is>
       </c>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>2</v>
       </c>
-      <c r="B15" t="n">
-        <v>128</v>
-      </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>128</v>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E15" t="n">
-        <v>128</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Adam</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="F15" t="n">
+        <v>128</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>BCEWithLogitsLoss</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>BCEWithLogitsLoss</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
         <v>10</v>
       </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
       <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
         <v>64.47368421052632</v>
       </c>
-      <c r="K15" t="n">
-        <v>50</v>
-      </c>
       <c r="L15" t="n">
         <v>50</v>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="M15" t="n">
+        <v>50</v>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>2024-05-07_18-45-51</t>
         </is>
       </c>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>2</v>
       </c>
-      <c r="B16" t="n">
-        <v>128</v>
-      </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>128</v>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E16" t="n">
-        <v>128</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Adam</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="F16" t="n">
+        <v>128</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>BCEWithLogitsLoss</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>BCEWithLogitsLoss</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
         <v>10</v>
       </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
       <c r="J16" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
         <v>50</v>
@@ -1199,46 +1303,50 @@
       <c r="L16" t="n">
         <v>50</v>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="M16" t="n">
+        <v>50</v>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>2024-05-07_18-46-59</t>
         </is>
       </c>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>2</v>
       </c>
-      <c r="B17" t="n">
-        <v>128</v>
-      </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>128</v>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E17" t="n">
-        <v>128</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Adam</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="F17" t="n">
+        <v>128</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>BCEWithLogitsLoss</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>BCEWithLogitsLoss</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
         <v>10</v>
       </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
       <c r="J17" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="K17" t="n">
         <v>50</v>
@@ -1246,46 +1354,50 @@
       <c r="L17" t="n">
         <v>50</v>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="M17" t="n">
+        <v>50</v>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>2024-05-07_18-48-06</t>
         </is>
       </c>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>2</v>
       </c>
-      <c r="B18" t="n">
-        <v>128</v>
-      </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>128</v>
       </c>
       <c r="D18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E18" t="n">
-        <v>128</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Adam</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="F18" t="n">
+        <v>128</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>BCEWithLogitsLoss</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>BCEWithLogitsLoss</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
         <v>10</v>
       </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
       <c r="J18" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="K18" t="n">
         <v>50</v>
@@ -1293,58 +1405,68 @@
       <c r="L18" t="n">
         <v>50</v>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="M18" t="n">
+        <v>50</v>
+      </c>
+      <c r="N18" t="inlineStr">
         <is>
           <t>2024-05-07_19-18-22</t>
         </is>
       </c>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>2</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="n">
         <v>32</v>
       </c>
-      <c r="C19" t="n">
-        <v>3</v>
-      </c>
       <c r="D19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E19" t="n">
-        <v>128</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Adam</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="F19" t="n">
+        <v>128</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>BCEWithLogitsLoss</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>BCEWithLogitsLoss</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
         <v>10</v>
       </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
       <c r="J19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" t="n">
         <v>68.42105263157895</v>
       </c>
-      <c r="K19" t="n">
+      <c r="L19" t="n">
         <v>53.84615384615385</v>
       </c>
-      <c r="L19" t="n">
+      <c r="M19" t="n">
         <v>57.69230769230769</v>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="N19" t="inlineStr">
         <is>
           <t>2024-05-08_09-02-03</t>
         </is>
       </c>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1353,26 +1475,35 @@
       <c r="B20" t="n">
         <v>0.001</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="n">
         <v>10</v>
       </c>
-      <c r="D20" t="n">
-        <v>1</v>
-      </c>
       <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="n">
         <v>48.68421052631579</v>
       </c>
-      <c r="F20" t="n">
-        <v>50</v>
-      </c>
-      <c r="G20" t="n">
-        <v>50</v>
-      </c>
-      <c r="H20" t="inlineStr">
+      <c r="L20" t="n">
+        <v>50</v>
+      </c>
+      <c r="M20" t="n">
+        <v>50</v>
+      </c>
+      <c r="N20" t="inlineStr">
         <is>
           <t>2024-05-08_09-21-20</t>
         </is>
       </c>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1381,26 +1512,35 @@
       <c r="B21" t="n">
         <v>0.001</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="n">
         <v>10</v>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
         <v>4</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="n">
         <v>55.26315789473684</v>
       </c>
-      <c r="F21" t="n">
-        <v>50</v>
-      </c>
-      <c r="G21" t="n">
+      <c r="L21" t="n">
+        <v>50</v>
+      </c>
+      <c r="M21" t="n">
         <v>69.23076923076923</v>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="N21" t="inlineStr">
         <is>
           <t>2024-05-08_11-30-18</t>
         </is>
       </c>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1409,26 +1549,35 @@
       <c r="B22" t="n">
         <v>0.01</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="n">
         <v>5</v>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="n">
         <v>4</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="n">
         <v>44.73684210526316</v>
       </c>
-      <c r="F22" t="n">
-        <v>50</v>
-      </c>
-      <c r="G22" t="n">
-        <v>50</v>
-      </c>
-      <c r="H22" t="inlineStr">
+      <c r="L22" t="n">
+        <v>50</v>
+      </c>
+      <c r="M22" t="n">
+        <v>50</v>
+      </c>
+      <c r="N22" t="inlineStr">
         <is>
           <t>2024-05-08_12-39-10</t>
         </is>
       </c>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1437,24 +1586,1108 @@
       <c r="B23" t="n">
         <v>0.001</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="n">
         <v>20</v>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="n">
         <v>4</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="n">
         <v>46.05263157894737</v>
       </c>
-      <c r="F23" t="n">
-        <v>50</v>
-      </c>
-      <c r="G23" t="n">
+      <c r="L23" t="n">
+        <v>50</v>
+      </c>
+      <c r="M23" t="n">
         <v>65.38461538461539</v>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="N23" t="inlineStr">
         <is>
           <t>2024-05-08_18-58-47</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2</v>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="n">
+        <v>128</v>
+      </c>
+      <c r="D24" t="n">
+        <v>3</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2</v>
+      </c>
+      <c r="F24" t="n">
+        <v>128</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>BCEWithLogitsLoss</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>2</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" t="n">
+        <v>46.05263157894737</v>
+      </c>
+      <c r="L24" t="n">
+        <v>50</v>
+      </c>
+      <c r="M24" t="n">
+        <v>50</v>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>2024-05-09_09-38-38</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>MRI_PET</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2</v>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="n">
+        <v>128</v>
+      </c>
+      <c r="D25" t="n">
+        <v>3</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2</v>
+      </c>
+      <c r="F25" t="n">
+        <v>128</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>BCEWithLogitsLoss</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>2</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" t="n">
+        <v>50</v>
+      </c>
+      <c r="L25" t="n">
+        <v>50</v>
+      </c>
+      <c r="M25" t="n">
+        <v>50</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>2024-05-09_09-39-05</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>MRI</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2</v>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="n">
+        <v>128</v>
+      </c>
+      <c r="D26" t="n">
+        <v>3</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2</v>
+      </c>
+      <c r="F26" t="n">
+        <v>128</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>BCEWithLogitsLoss</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>2</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" t="n">
+        <v>50</v>
+      </c>
+      <c r="L26" t="n">
+        <v>50</v>
+      </c>
+      <c r="M26" t="n">
+        <v>50</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>2024-05-09_09-39-32</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>PET</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2</v>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="n">
+        <v>128</v>
+      </c>
+      <c r="D27" t="n">
+        <v>3</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2</v>
+      </c>
+      <c r="F27" t="n">
+        <v>128</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>BCEWithLogitsLoss</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>2</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1</v>
+      </c>
+      <c r="K27" t="n">
+        <v>47.36842105263158</v>
+      </c>
+      <c r="L27" t="n">
+        <v>50</v>
+      </c>
+      <c r="M27" t="n">
+        <v>50</v>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>2024-05-09_10-58-41</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>MRI_PET</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2</v>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="n">
+        <v>128</v>
+      </c>
+      <c r="D28" t="n">
+        <v>3</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2</v>
+      </c>
+      <c r="F28" t="n">
+        <v>128</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>BCEWithLogitsLoss</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>2</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" t="n">
+        <v>50</v>
+      </c>
+      <c r="L28" t="n">
+        <v>50</v>
+      </c>
+      <c r="M28" t="n">
+        <v>50</v>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>2024-05-09_10-59-07</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>MRI</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2</v>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="n">
+        <v>128</v>
+      </c>
+      <c r="D29" t="n">
+        <v>3</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2</v>
+      </c>
+      <c r="F29" t="n">
+        <v>128</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>BCEWithLogitsLoss</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>2</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1</v>
+      </c>
+      <c r="K29" t="n">
+        <v>42.10526315789474</v>
+      </c>
+      <c r="L29" t="n">
+        <v>50</v>
+      </c>
+      <c r="M29" t="n">
+        <v>50</v>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>2024-05-09_10-59-34</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>PET</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2</v>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="n">
+        <v>128</v>
+      </c>
+      <c r="D30" t="n">
+        <v>3</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2</v>
+      </c>
+      <c r="F30" t="n">
+        <v>128</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>BCEWithLogitsLoss</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>2</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K30" t="n">
+        <v>43.42105263157895</v>
+      </c>
+      <c r="L30" t="n">
+        <v>50</v>
+      </c>
+      <c r="M30" t="n">
+        <v>50</v>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>2024-05-09_11-13-58</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>MRI_PET</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2</v>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="n">
+        <v>128</v>
+      </c>
+      <c r="D31" t="n">
+        <v>3</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2</v>
+      </c>
+      <c r="F31" t="n">
+        <v>128</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>BCEWithLogitsLoss</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>2</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" t="n">
+        <v>50</v>
+      </c>
+      <c r="L31" t="n">
+        <v>50</v>
+      </c>
+      <c r="M31" t="n">
+        <v>50</v>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>2024-05-09_11-15-18</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>MRI_PET</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>2</v>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="n">
+        <v>128</v>
+      </c>
+      <c r="D32" t="n">
+        <v>3</v>
+      </c>
+      <c r="E32" t="n">
+        <v>2</v>
+      </c>
+      <c r="F32" t="n">
+        <v>128</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>BCEWithLogitsLoss</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>2</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1</v>
+      </c>
+      <c r="K32" t="n">
+        <v>50</v>
+      </c>
+      <c r="L32" t="n">
+        <v>50</v>
+      </c>
+      <c r="M32" t="n">
+        <v>50</v>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>2024-05-09_11-15-49</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>MRI</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>2</v>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="n">
+        <v>128</v>
+      </c>
+      <c r="D33" t="n">
+        <v>3</v>
+      </c>
+      <c r="E33" t="n">
+        <v>2</v>
+      </c>
+      <c r="F33" t="n">
+        <v>128</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>BCEWithLogitsLoss</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>2</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1</v>
+      </c>
+      <c r="K33" t="n">
+        <v>46.05263157894737</v>
+      </c>
+      <c r="L33" t="n">
+        <v>50</v>
+      </c>
+      <c r="M33" t="n">
+        <v>50</v>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>2024-05-09_11-16-20</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>PET</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>2</v>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="n">
+        <v>128</v>
+      </c>
+      <c r="D34" t="n">
+        <v>3</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2</v>
+      </c>
+      <c r="F34" t="n">
+        <v>128</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>BCEWithLogitsLoss</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>2</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K34" t="n">
+        <v>46.05263157894737</v>
+      </c>
+      <c r="L34" t="n">
+        <v>50</v>
+      </c>
+      <c r="M34" t="n">
+        <v>50</v>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>2024-05-09_11-31-20</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>MRI_PET</t>
+        </is>
+      </c>
+      <c r="P34" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>2</v>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="n">
+        <v>128</v>
+      </c>
+      <c r="D35" t="n">
+        <v>3</v>
+      </c>
+      <c r="E35" t="n">
+        <v>2</v>
+      </c>
+      <c r="F35" t="n">
+        <v>128</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>BCEWithLogitsLoss</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>2</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1</v>
+      </c>
+      <c r="K35" t="n">
+        <v>50</v>
+      </c>
+      <c r="L35" t="n">
+        <v>50</v>
+      </c>
+      <c r="M35" t="n">
+        <v>50</v>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>2024-05-09_11-31-51</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>MRI</t>
+        </is>
+      </c>
+      <c r="P35" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>2</v>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="n">
+        <v>128</v>
+      </c>
+      <c r="D36" t="n">
+        <v>3</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2</v>
+      </c>
+      <c r="F36" t="n">
+        <v>128</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>BCEWithLogitsLoss</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1</v>
+      </c>
+      <c r="K36" t="n">
+        <v>50</v>
+      </c>
+      <c r="L36" t="n">
+        <v>50</v>
+      </c>
+      <c r="M36" t="n">
+        <v>50</v>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>2024-05-09_11-32-21</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>PET</t>
+        </is>
+      </c>
+      <c r="P36" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>2</v>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="n">
+        <v>128</v>
+      </c>
+      <c r="D37" t="n">
+        <v>3</v>
+      </c>
+      <c r="E37" t="n">
+        <v>2</v>
+      </c>
+      <c r="F37" t="n">
+        <v>128</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>BCEWithLogitsLoss</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>2</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1</v>
+      </c>
+      <c r="K37" t="n">
+        <v>50</v>
+      </c>
+      <c r="L37" t="n">
+        <v>50</v>
+      </c>
+      <c r="M37" t="n">
+        <v>50</v>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>2024-05-09_11-59-53</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>MRI_PET</t>
+        </is>
+      </c>
+      <c r="P37" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>2</v>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="n">
+        <v>128</v>
+      </c>
+      <c r="D38" t="n">
+        <v>3</v>
+      </c>
+      <c r="E38" t="n">
+        <v>2</v>
+      </c>
+      <c r="F38" t="n">
+        <v>128</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>BCEWithLogitsLoss</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>2</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1</v>
+      </c>
+      <c r="K38" t="n">
+        <v>46.05263157894737</v>
+      </c>
+      <c r="L38" t="n">
+        <v>50</v>
+      </c>
+      <c r="M38" t="n">
+        <v>50</v>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>2024-05-09_12-00-24</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>MRI</t>
+        </is>
+      </c>
+      <c r="P38" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>2</v>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="n">
+        <v>128</v>
+      </c>
+      <c r="D39" t="n">
+        <v>3</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2</v>
+      </c>
+      <c r="F39" t="n">
+        <v>128</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>BCEWithLogitsLoss</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>2</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1</v>
+      </c>
+      <c r="K39" t="n">
+        <v>39.47368421052632</v>
+      </c>
+      <c r="L39" t="n">
+        <v>50</v>
+      </c>
+      <c r="M39" t="n">
+        <v>50</v>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>2024-05-09_12-00-56</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>PET</t>
+        </is>
+      </c>
+      <c r="P39" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>2</v>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="n">
+        <v>256</v>
+      </c>
+      <c r="D40" t="n">
+        <v>3</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2</v>
+      </c>
+      <c r="F40" t="n">
+        <v>128</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>BCEWithLogitsLoss</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>10</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1</v>
+      </c>
+      <c r="K40" t="n">
+        <v>50</v>
+      </c>
+      <c r="L40" t="n">
+        <v>50</v>
+      </c>
+      <c r="M40" t="n">
+        <v>50</v>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>2024-05-09_12-09-05</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>MRI_PET</t>
+        </is>
+      </c>
+      <c r="P40" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>Baseline3DCNN - Simple model architecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>2</v>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="n">
+        <v>256</v>
+      </c>
+      <c r="D41" t="n">
+        <v>3</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2</v>
+      </c>
+      <c r="F41" t="n">
+        <v>128</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>BCEWithLogitsLoss</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>10</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1</v>
+      </c>
+      <c r="K41" t="n">
+        <v>50</v>
+      </c>
+      <c r="L41" t="n">
+        <v>50</v>
+      </c>
+      <c r="M41" t="n">
+        <v>50</v>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>2024-05-09_12-13-12</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>MRI</t>
+        </is>
+      </c>
+      <c r="P41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>Baseline3DCNN - Simple model architecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>2</v>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="n">
+        <v>256</v>
+      </c>
+      <c r="D42" t="n">
+        <v>3</v>
+      </c>
+      <c r="E42" t="n">
+        <v>2</v>
+      </c>
+      <c r="F42" t="n">
+        <v>128</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>BCEWithLogitsLoss</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>10</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1</v>
+      </c>
+      <c r="K42" t="n">
+        <v>50</v>
+      </c>
+      <c r="L42" t="n">
+        <v>50</v>
+      </c>
+      <c r="M42" t="n">
+        <v>50</v>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>2024-05-09_12-15-46</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>PET</t>
+        </is>
+      </c>
+      <c r="P42" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>Baseline3DCNN - Simple model architecture</t>
         </is>
       </c>
     </row>

--- a/reports/RESULTS.xlsx
+++ b/reports/RESULTS.xlsx
@@ -455,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q42"/>
+  <dimension ref="A1:R45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="P1" sqref="P1"/>
@@ -549,6 +549,11 @@
           <t>Description</t>
         </is>
       </c>
+      <c r="R1" s="3" t="inlineStr">
+        <is>
+          <t>sample_size</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -600,6 +605,7 @@
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -651,6 +657,7 @@
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -702,6 +709,7 @@
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -753,6 +761,7 @@
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -804,6 +813,7 @@
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -855,6 +865,7 @@
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -906,6 +917,7 @@
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -957,6 +969,7 @@
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1008,6 +1021,7 @@
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1059,6 +1073,7 @@
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1110,6 +1125,7 @@
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1161,6 +1177,7 @@
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1212,6 +1229,7 @@
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1263,6 +1281,7 @@
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1314,6 +1333,7 @@
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1365,6 +1385,7 @@
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1416,6 +1437,7 @@
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1467,6 +1489,7 @@
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1504,6 +1527,7 @@
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1541,6 +1565,7 @@
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1578,6 +1603,7 @@
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1615,6 +1641,7 @@
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1670,6 +1697,7 @@
       </c>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1725,6 +1753,7 @@
       </c>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1780,6 +1809,7 @@
       </c>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1835,6 +1865,7 @@
       </c>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1890,6 +1921,7 @@
       </c>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1945,6 +1977,7 @@
       </c>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2000,6 +2033,7 @@
       </c>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2055,6 +2089,7 @@
       </c>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2110,6 +2145,7 @@
       </c>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2165,6 +2201,7 @@
       </c>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2222,6 +2259,7 @@
         <v>3</v>
       </c>
       <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2279,6 +2317,7 @@
         <v>3</v>
       </c>
       <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2336,6 +2375,7 @@
         <v>3</v>
       </c>
       <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2393,6 +2433,7 @@
         <v>3</v>
       </c>
       <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2450,6 +2491,7 @@
         <v>3</v>
       </c>
       <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2507,6 +2549,7 @@
         <v>3</v>
       </c>
       <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2568,6 +2611,7 @@
           <t>Baseline3DCNN - Simple model architecture</t>
         </is>
       </c>
+      <c r="R40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2629,6 +2673,7 @@
           <t>Baseline3DCNN - Simple model architecture</t>
         </is>
       </c>
+      <c r="R41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2689,6 +2734,199 @@
         <is>
           <t>Baseline3DCNN - Simple model architecture</t>
         </is>
+      </c>
+      <c r="R42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>2</v>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="n">
+        <v>32</v>
+      </c>
+      <c r="D43" t="n">
+        <v>3</v>
+      </c>
+      <c r="E43" t="n">
+        <v>2</v>
+      </c>
+      <c r="F43" t="n">
+        <v>128</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>BCEWithLogitsLoss</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>10</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1</v>
+      </c>
+      <c r="K43" t="n">
+        <v>100</v>
+      </c>
+      <c r="L43" t="n">
+        <v>100</v>
+      </c>
+      <c r="M43" t="n">
+        <v>100</v>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>2024-05-09_14-30-31</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>MRI_PET</t>
+        </is>
+      </c>
+      <c r="P43" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>Baseline3DCNN - Simple model architecture</t>
+        </is>
+      </c>
+      <c r="R43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>2</v>
+      </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="n">
+        <v>32</v>
+      </c>
+      <c r="D44" t="n">
+        <v>3</v>
+      </c>
+      <c r="E44" t="n">
+        <v>2</v>
+      </c>
+      <c r="F44" t="n">
+        <v>128</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>BCEWithLogitsLoss</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>10</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
+      <c r="K44" t="n">
+        <v>100</v>
+      </c>
+      <c r="L44" t="n">
+        <v>100</v>
+      </c>
+      <c r="M44" t="n">
+        <v>100</v>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>2024-05-09_14-30-34</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>MRI</t>
+        </is>
+      </c>
+      <c r="P44" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>Baseline3DCNN - Simple model architecture</t>
+        </is>
+      </c>
+      <c r="R44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>2</v>
+      </c>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="n">
+        <v>32</v>
+      </c>
+      <c r="D45" t="n">
+        <v>3</v>
+      </c>
+      <c r="E45" t="n">
+        <v>2</v>
+      </c>
+      <c r="F45" t="n">
+        <v>128</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>BCEWithLogitsLoss</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>10</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1</v>
+      </c>
+      <c r="K45" t="n">
+        <v>100</v>
+      </c>
+      <c r="L45" t="n">
+        <v>100</v>
+      </c>
+      <c r="M45" t="n">
+        <v>100</v>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>2024-05-09_14-30-39</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>PET</t>
+        </is>
+      </c>
+      <c r="P45" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>Baseline3DCNN - Simple model architecture</t>
+        </is>
+      </c>
+      <c r="R45" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/reports/RESULTS.xlsx
+++ b/reports/RESULTS.xlsx
@@ -455,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R45"/>
+  <dimension ref="A1:R55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="P1" sqref="P1"/>
@@ -2929,6 +2929,574 @@
         <v>2</v>
       </c>
     </row>
+    <row r="46">
+      <c r="A46" t="inlineStr"/>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>BCEWithLogitsLoss</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>10</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2</v>
+      </c>
+      <c r="K46" t="n">
+        <v>100</v>
+      </c>
+      <c r="L46" t="n">
+        <v>100</v>
+      </c>
+      <c r="M46" t="n">
+        <v>100</v>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>2024-05-09_15-01-19</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>MRI_PET</t>
+        </is>
+      </c>
+      <c r="P46" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>VG33D advanced</t>
+        </is>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr"/>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>BCEWithLogitsLoss</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>10</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2</v>
+      </c>
+      <c r="K47" t="n">
+        <v>58.33333333333334</v>
+      </c>
+      <c r="L47" t="n">
+        <v>50</v>
+      </c>
+      <c r="M47" t="n">
+        <v>50</v>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>2024-05-09_16-22-23</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>MRI_PET</t>
+        </is>
+      </c>
+      <c r="P47" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>VG33D advanced</t>
+        </is>
+      </c>
+      <c r="R47" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr"/>
+      <c r="B48" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>BCEWithLogitsLoss</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>10</v>
+      </c>
+      <c r="J48" t="n">
+        <v>2</v>
+      </c>
+      <c r="K48" t="n">
+        <v>100</v>
+      </c>
+      <c r="L48" t="n">
+        <v>50</v>
+      </c>
+      <c r="M48" t="n">
+        <v>50</v>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>2024-05-09_17-01-06</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>MRI_PET</t>
+        </is>
+      </c>
+      <c r="P48" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>VG33D advanced</t>
+        </is>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr"/>
+      <c r="B49" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>BCEWithLogitsLoss</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>10</v>
+      </c>
+      <c r="J49" t="n">
+        <v>2</v>
+      </c>
+      <c r="K49" t="n">
+        <v>65</v>
+      </c>
+      <c r="L49" t="n">
+        <v>45</v>
+      </c>
+      <c r="M49" t="n">
+        <v>50</v>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>2024-05-09_18-07-55</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>MRI_PET</t>
+        </is>
+      </c>
+      <c r="P49" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>VG33D advanced</t>
+        </is>
+      </c>
+      <c r="R49" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr"/>
+      <c r="B50" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>BCEWithLogitsLoss</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>10</v>
+      </c>
+      <c r="J50" t="n">
+        <v>2</v>
+      </c>
+      <c r="K50" t="n">
+        <v>51.31578947368421</v>
+      </c>
+      <c r="L50" t="n">
+        <v>50</v>
+      </c>
+      <c r="M50" t="n">
+        <v>50</v>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>2024-05-09_23-59-05</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>MRI_PET</t>
+        </is>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>VG33D advanced</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr"/>
+      <c r="B51" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>BCEWithLogitsLoss</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>10</v>
+      </c>
+      <c r="J51" t="n">
+        <v>2</v>
+      </c>
+      <c r="K51" t="n">
+        <v>50</v>
+      </c>
+      <c r="L51" t="n">
+        <v>50</v>
+      </c>
+      <c r="M51" t="n">
+        <v>50</v>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>2024-05-10_05-43-41</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>MRI</t>
+        </is>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>VG33D advanced</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr"/>
+      <c r="B52" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>BCEWithLogitsLoss</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>10</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2</v>
+      </c>
+      <c r="K52" t="n">
+        <v>42.10526315789474</v>
+      </c>
+      <c r="L52" t="n">
+        <v>42.30769230769231</v>
+      </c>
+      <c r="M52" t="n">
+        <v>50</v>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>2024-05-10_08-54-47</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>PET</t>
+        </is>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>VG33D advanced</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>2</v>
+      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="n">
+        <v>8</v>
+      </c>
+      <c r="D53" t="n">
+        <v>3</v>
+      </c>
+      <c r="E53" t="n">
+        <v>2</v>
+      </c>
+      <c r="F53" t="n">
+        <v>128</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>CrossEntropyLoss</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>10</v>
+      </c>
+      <c r="J53" t="n">
+        <v>4</v>
+      </c>
+      <c r="K53" t="n">
+        <v>51.31578947368421</v>
+      </c>
+      <c r="L53" t="n">
+        <v>45.83333333333334</v>
+      </c>
+      <c r="M53" t="n">
+        <v>41.66666666666666</v>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>2024-05-10_09-40-48</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>MRI_PET</t>
+        </is>
+      </c>
+      <c r="P53" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>Baseline3DCNN - Simple model architecture</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>2</v>
+      </c>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="n">
+        <v>8</v>
+      </c>
+      <c r="D54" t="n">
+        <v>3</v>
+      </c>
+      <c r="E54" t="n">
+        <v>2</v>
+      </c>
+      <c r="F54" t="n">
+        <v>128</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>CrossEntropyLoss</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>10</v>
+      </c>
+      <c r="J54" t="n">
+        <v>4</v>
+      </c>
+      <c r="K54" t="n">
+        <v>57.89473684210526</v>
+      </c>
+      <c r="L54" t="n">
+        <v>50</v>
+      </c>
+      <c r="M54" t="n">
+        <v>45.83333333333334</v>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>2024-05-10_09-41-34</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>MRI</t>
+        </is>
+      </c>
+      <c r="P54" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>Baseline3DCNN - Simple model architecture</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>2</v>
+      </c>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="n">
+        <v>8</v>
+      </c>
+      <c r="D55" t="n">
+        <v>3</v>
+      </c>
+      <c r="E55" t="n">
+        <v>2</v>
+      </c>
+      <c r="F55" t="n">
+        <v>128</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>CrossEntropyLoss</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>10</v>
+      </c>
+      <c r="J55" t="n">
+        <v>4</v>
+      </c>
+      <c r="K55" t="n">
+        <v>93.42105263157895</v>
+      </c>
+      <c r="L55" t="n">
+        <v>54.16666666666666</v>
+      </c>
+      <c r="M55" t="n">
+        <v>58.33333333333334</v>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>2024-05-10_09-42-58</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>PET</t>
+        </is>
+      </c>
+      <c r="P55" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>Baseline3DCNN - Simple model architecture</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/reports/RESULTS.xlsx
+++ b/reports/RESULTS.xlsx
@@ -455,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R55"/>
+  <dimension ref="A1:R86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="P1" sqref="P1"/>
@@ -3497,6 +3497,1936 @@
       </c>
       <c r="R55" t="inlineStr"/>
     </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>2</v>
+      </c>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="n">
+        <v>8</v>
+      </c>
+      <c r="D56" t="n">
+        <v>3</v>
+      </c>
+      <c r="E56" t="n">
+        <v>2</v>
+      </c>
+      <c r="F56" t="n">
+        <v>128</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>CrossEntropyLoss</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>20</v>
+      </c>
+      <c r="J56" t="n">
+        <v>4</v>
+      </c>
+      <c r="K56" t="n">
+        <v>65.78947368421052</v>
+      </c>
+      <c r="L56" t="n">
+        <v>54.16666666666666</v>
+      </c>
+      <c r="M56" t="n">
+        <v>54.16666666666666</v>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>2024-05-10_11-17-28</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>MRI_PET</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>Baseline3DCNN - Simple model architecture</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>2</v>
+      </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="n">
+        <v>8</v>
+      </c>
+      <c r="D57" t="n">
+        <v>3</v>
+      </c>
+      <c r="E57" t="n">
+        <v>2</v>
+      </c>
+      <c r="F57" t="n">
+        <v>128</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>CrossEntropyLoss</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>20</v>
+      </c>
+      <c r="J57" t="n">
+        <v>4</v>
+      </c>
+      <c r="K57" t="n">
+        <v>100</v>
+      </c>
+      <c r="L57" t="n">
+        <v>50</v>
+      </c>
+      <c r="M57" t="n">
+        <v>50</v>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>2024-05-10_11-19-23</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>MRI_PET</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>Baseline3DCNN - Simple model architecture</t>
+        </is>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>2</v>
+      </c>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="n">
+        <v>8</v>
+      </c>
+      <c r="D58" t="n">
+        <v>3</v>
+      </c>
+      <c r="E58" t="n">
+        <v>2</v>
+      </c>
+      <c r="F58" t="n">
+        <v>128</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>CrossEntropyLoss</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>20</v>
+      </c>
+      <c r="J58" t="n">
+        <v>4</v>
+      </c>
+      <c r="K58" t="n">
+        <v>100</v>
+      </c>
+      <c r="L58" t="n">
+        <v>50</v>
+      </c>
+      <c r="M58" t="n">
+        <v>54.16666666666666</v>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>2024-05-10_11-20-04</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>MRI_PET</t>
+        </is>
+      </c>
+      <c r="P58" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>Baseline3DCNN - Simple model architecture</t>
+        </is>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>2</v>
+      </c>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="n">
+        <v>8</v>
+      </c>
+      <c r="D59" t="n">
+        <v>3</v>
+      </c>
+      <c r="E59" t="n">
+        <v>2</v>
+      </c>
+      <c r="F59" t="n">
+        <v>128</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>CrossEntropyLoss</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>20</v>
+      </c>
+      <c r="J59" t="n">
+        <v>4</v>
+      </c>
+      <c r="K59" t="n">
+        <v>100</v>
+      </c>
+      <c r="L59" t="n">
+        <v>50</v>
+      </c>
+      <c r="M59" t="n">
+        <v>50</v>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>2024-05-10_11-20-13</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>MRI</t>
+        </is>
+      </c>
+      <c r="P59" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>Baseline3DCNN - Simple model architecture</t>
+        </is>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>2</v>
+      </c>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="n">
+        <v>8</v>
+      </c>
+      <c r="D60" t="n">
+        <v>3</v>
+      </c>
+      <c r="E60" t="n">
+        <v>2</v>
+      </c>
+      <c r="F60" t="n">
+        <v>128</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>CrossEntropyLoss</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>20</v>
+      </c>
+      <c r="J60" t="n">
+        <v>4</v>
+      </c>
+      <c r="K60" t="n">
+        <v>100</v>
+      </c>
+      <c r="L60" t="n">
+        <v>50</v>
+      </c>
+      <c r="M60" t="n">
+        <v>50</v>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>2024-05-10_11-20-21</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>PET</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>Baseline3DCNN - Simple model architecture</t>
+        </is>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>2</v>
+      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="n">
+        <v>8</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1</v>
+      </c>
+      <c r="E61" t="n">
+        <v>2</v>
+      </c>
+      <c r="F61" t="n">
+        <v>128</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>CrossEntropyLoss</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>20</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1</v>
+      </c>
+      <c r="K61" t="n">
+        <v>53.94736842105263</v>
+      </c>
+      <c r="L61" t="n">
+        <v>53.84615384615385</v>
+      </c>
+      <c r="M61" t="n">
+        <v>50</v>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>2024-05-10_12-07-45</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>MRI_PET</t>
+        </is>
+      </c>
+      <c r="P61" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>Baseline3DCNN - Simple model architecture</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>2</v>
+      </c>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="n">
+        <v>8</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1</v>
+      </c>
+      <c r="E62" t="n">
+        <v>2</v>
+      </c>
+      <c r="F62" t="n">
+        <v>128</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>CrossEntropyLoss</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>20</v>
+      </c>
+      <c r="J62" t="n">
+        <v>2</v>
+      </c>
+      <c r="K62" t="n">
+        <v>50</v>
+      </c>
+      <c r="L62" t="n">
+        <v>50</v>
+      </c>
+      <c r="M62" t="n">
+        <v>50</v>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>2024-05-10_12-08-54</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>MRI_PET</t>
+        </is>
+      </c>
+      <c r="P62" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>Baseline3DCNN - Simple model architecture</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>2</v>
+      </c>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="n">
+        <v>8</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1</v>
+      </c>
+      <c r="E63" t="n">
+        <v>2</v>
+      </c>
+      <c r="F63" t="n">
+        <v>128</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>CrossEntropyLoss</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>20</v>
+      </c>
+      <c r="J63" t="n">
+        <v>3</v>
+      </c>
+      <c r="K63" t="n">
+        <v>52</v>
+      </c>
+      <c r="L63" t="n">
+        <v>33.33333333333334</v>
+      </c>
+      <c r="M63" t="n">
+        <v>58.33333333333334</v>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>2024-05-10_12-09-55</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>MRI_PET</t>
+        </is>
+      </c>
+      <c r="P63" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>Baseline3DCNN - Simple model architecture</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>2</v>
+      </c>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="n">
+        <v>8</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1</v>
+      </c>
+      <c r="E64" t="n">
+        <v>2</v>
+      </c>
+      <c r="F64" t="n">
+        <v>128</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>CrossEntropyLoss</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>20</v>
+      </c>
+      <c r="J64" t="n">
+        <v>4</v>
+      </c>
+      <c r="K64" t="n">
+        <v>47.36842105263158</v>
+      </c>
+      <c r="L64" t="n">
+        <v>50</v>
+      </c>
+      <c r="M64" t="n">
+        <v>50</v>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>2024-05-10_12-10-56</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>MRI_PET</t>
+        </is>
+      </c>
+      <c r="P64" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>Baseline3DCNN - Simple model architecture</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>2</v>
+      </c>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="n">
+        <v>8</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1</v>
+      </c>
+      <c r="E65" t="n">
+        <v>2</v>
+      </c>
+      <c r="F65" t="n">
+        <v>128</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>CrossEntropyLoss</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>20</v>
+      </c>
+      <c r="J65" t="n">
+        <v>5</v>
+      </c>
+      <c r="K65" t="n">
+        <v>50.66666666666666</v>
+      </c>
+      <c r="L65" t="n">
+        <v>48</v>
+      </c>
+      <c r="M65" t="n">
+        <v>52</v>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>2024-05-10_12-11-52</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>MRI_PET</t>
+        </is>
+      </c>
+      <c r="P65" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>Baseline3DCNN - Simple model architecture</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>2</v>
+      </c>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="n">
+        <v>8</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1</v>
+      </c>
+      <c r="E66" t="n">
+        <v>2</v>
+      </c>
+      <c r="F66" t="n">
+        <v>128</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>CrossEntropyLoss</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>20</v>
+      </c>
+      <c r="J66" t="n">
+        <v>6</v>
+      </c>
+      <c r="K66" t="n">
+        <v>61.11111111111111</v>
+      </c>
+      <c r="L66" t="n">
+        <v>50</v>
+      </c>
+      <c r="M66" t="n">
+        <v>45.83333333333334</v>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>2024-05-10_12-13-16</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>MRI_PET</t>
+        </is>
+      </c>
+      <c r="P66" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>Baseline3DCNN - Simple model architecture</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>2</v>
+      </c>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="n">
+        <v>8</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2</v>
+      </c>
+      <c r="E67" t="n">
+        <v>2</v>
+      </c>
+      <c r="F67" t="n">
+        <v>128</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>CrossEntropyLoss</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>20</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1</v>
+      </c>
+      <c r="K67" t="n">
+        <v>57.89473684210526</v>
+      </c>
+      <c r="L67" t="n">
+        <v>50</v>
+      </c>
+      <c r="M67" t="n">
+        <v>50</v>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>2024-05-10_12-24-38</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>MRI_PET</t>
+        </is>
+      </c>
+      <c r="P67" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>Baseline3DCNN - Simple model architecture</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>2</v>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="n">
+        <v>8</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2</v>
+      </c>
+      <c r="E68" t="n">
+        <v>2</v>
+      </c>
+      <c r="F68" t="n">
+        <v>128</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>CrossEntropyLoss</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>20</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2</v>
+      </c>
+      <c r="K68" t="n">
+        <v>61.8421052631579</v>
+      </c>
+      <c r="L68" t="n">
+        <v>46.15384615384615</v>
+      </c>
+      <c r="M68" t="n">
+        <v>50</v>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>2024-05-10_12-26-41</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>MRI_PET</t>
+        </is>
+      </c>
+      <c r="P68" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>Baseline3DCNN - Simple model architecture</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>2</v>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="n">
+        <v>8</v>
+      </c>
+      <c r="D69" t="n">
+        <v>2</v>
+      </c>
+      <c r="E69" t="n">
+        <v>2</v>
+      </c>
+      <c r="F69" t="n">
+        <v>128</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>CrossEntropyLoss</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>20</v>
+      </c>
+      <c r="J69" t="n">
+        <v>3</v>
+      </c>
+      <c r="K69" t="n">
+        <v>49.33333333333334</v>
+      </c>
+      <c r="L69" t="n">
+        <v>50</v>
+      </c>
+      <c r="M69" t="n">
+        <v>45.83333333333334</v>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>2024-05-10_12-28-20</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>MRI_PET</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>Baseline3DCNN - Simple model architecture</t>
+        </is>
+      </c>
+      <c r="R69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>2</v>
+      </c>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="n">
+        <v>8</v>
+      </c>
+      <c r="D70" t="n">
+        <v>2</v>
+      </c>
+      <c r="E70" t="n">
+        <v>2</v>
+      </c>
+      <c r="F70" t="n">
+        <v>128</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>CrossEntropyLoss</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>20</v>
+      </c>
+      <c r="J70" t="n">
+        <v>4</v>
+      </c>
+      <c r="K70" t="n">
+        <v>61.8421052631579</v>
+      </c>
+      <c r="L70" t="n">
+        <v>50</v>
+      </c>
+      <c r="M70" t="n">
+        <v>45.83333333333334</v>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>2024-05-10_12-30-34</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>MRI_PET</t>
+        </is>
+      </c>
+      <c r="P70" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>Baseline3DCNN - Simple model architecture</t>
+        </is>
+      </c>
+      <c r="R70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>2</v>
+      </c>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="n">
+        <v>8</v>
+      </c>
+      <c r="D71" t="n">
+        <v>2</v>
+      </c>
+      <c r="E71" t="n">
+        <v>2</v>
+      </c>
+      <c r="F71" t="n">
+        <v>128</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>CrossEntropyLoss</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>20</v>
+      </c>
+      <c r="J71" t="n">
+        <v>5</v>
+      </c>
+      <c r="K71" t="n">
+        <v>92</v>
+      </c>
+      <c r="L71" t="n">
+        <v>56</v>
+      </c>
+      <c r="M71" t="n">
+        <v>52</v>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>2024-05-10_12-33-35</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>MRI_PET</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>Baseline3DCNN - Simple model architecture</t>
+        </is>
+      </c>
+      <c r="R71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>2</v>
+      </c>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="n">
+        <v>8</v>
+      </c>
+      <c r="D72" t="n">
+        <v>2</v>
+      </c>
+      <c r="E72" t="n">
+        <v>2</v>
+      </c>
+      <c r="F72" t="n">
+        <v>128</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>CrossEntropyLoss</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>20</v>
+      </c>
+      <c r="J72" t="n">
+        <v>6</v>
+      </c>
+      <c r="K72" t="n">
+        <v>65.27777777777777</v>
+      </c>
+      <c r="L72" t="n">
+        <v>58.33333333333334</v>
+      </c>
+      <c r="M72" t="n">
+        <v>50</v>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>2024-05-10_12-35-32</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>MRI_PET</t>
+        </is>
+      </c>
+      <c r="P72" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>Baseline3DCNN - Simple model architecture</t>
+        </is>
+      </c>
+      <c r="R72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>2</v>
+      </c>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="n">
+        <v>8</v>
+      </c>
+      <c r="D73" t="n">
+        <v>3</v>
+      </c>
+      <c r="E73" t="n">
+        <v>2</v>
+      </c>
+      <c r="F73" t="n">
+        <v>128</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>CrossEntropyLoss</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>20</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1</v>
+      </c>
+      <c r="K73" t="n">
+        <v>51.31578947368421</v>
+      </c>
+      <c r="L73" t="n">
+        <v>50</v>
+      </c>
+      <c r="M73" t="n">
+        <v>46.15384615384615</v>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>2024-05-10_12-36-52</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>MRI_PET</t>
+        </is>
+      </c>
+      <c r="P73" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>Baseline3DCNN - Simple model architecture</t>
+        </is>
+      </c>
+      <c r="R73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>2</v>
+      </c>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="n">
+        <v>8</v>
+      </c>
+      <c r="D74" t="n">
+        <v>3</v>
+      </c>
+      <c r="E74" t="n">
+        <v>2</v>
+      </c>
+      <c r="F74" t="n">
+        <v>128</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>CrossEntropyLoss</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>20</v>
+      </c>
+      <c r="J74" t="n">
+        <v>2</v>
+      </c>
+      <c r="K74" t="n">
+        <v>50</v>
+      </c>
+      <c r="L74" t="n">
+        <v>50</v>
+      </c>
+      <c r="M74" t="n">
+        <v>50</v>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>2024-05-10_12-38-07</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>MRI_PET</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>Baseline3DCNN - Simple model architecture</t>
+        </is>
+      </c>
+      <c r="R74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>2</v>
+      </c>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="n">
+        <v>8</v>
+      </c>
+      <c r="D75" t="n">
+        <v>3</v>
+      </c>
+      <c r="E75" t="n">
+        <v>2</v>
+      </c>
+      <c r="F75" t="n">
+        <v>128</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>CrossEntropyLoss</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>20</v>
+      </c>
+      <c r="J75" t="n">
+        <v>3</v>
+      </c>
+      <c r="K75" t="n">
+        <v>64</v>
+      </c>
+      <c r="L75" t="n">
+        <v>50</v>
+      </c>
+      <c r="M75" t="n">
+        <v>50</v>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>2024-05-10_12-40-20</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>MRI_PET</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>Baseline3DCNN - Simple model architecture</t>
+        </is>
+      </c>
+      <c r="R75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>2</v>
+      </c>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="n">
+        <v>8</v>
+      </c>
+      <c r="D76" t="n">
+        <v>3</v>
+      </c>
+      <c r="E76" t="n">
+        <v>2</v>
+      </c>
+      <c r="F76" t="n">
+        <v>128</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>CrossEntropyLoss</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>20</v>
+      </c>
+      <c r="J76" t="n">
+        <v>4</v>
+      </c>
+      <c r="K76" t="n">
+        <v>56.57894736842105</v>
+      </c>
+      <c r="L76" t="n">
+        <v>50</v>
+      </c>
+      <c r="M76" t="n">
+        <v>58.33333333333334</v>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>2024-05-10_12-41-31</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>MRI_PET</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>Baseline3DCNN - Simple model architecture</t>
+        </is>
+      </c>
+      <c r="R76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>2</v>
+      </c>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="n">
+        <v>8</v>
+      </c>
+      <c r="D77" t="n">
+        <v>3</v>
+      </c>
+      <c r="E77" t="n">
+        <v>2</v>
+      </c>
+      <c r="F77" t="n">
+        <v>128</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>CrossEntropyLoss</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>20</v>
+      </c>
+      <c r="J77" t="n">
+        <v>5</v>
+      </c>
+      <c r="K77" t="n">
+        <v>42.66666666666666</v>
+      </c>
+      <c r="L77" t="n">
+        <v>48</v>
+      </c>
+      <c r="M77" t="n">
+        <v>52</v>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>2024-05-10_12-42-40</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>MRI_PET</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>Baseline3DCNN - Simple model architecture</t>
+        </is>
+      </c>
+      <c r="R77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>2</v>
+      </c>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="n">
+        <v>8</v>
+      </c>
+      <c r="D78" t="n">
+        <v>3</v>
+      </c>
+      <c r="E78" t="n">
+        <v>2</v>
+      </c>
+      <c r="F78" t="n">
+        <v>128</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>CrossEntropyLoss</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>20</v>
+      </c>
+      <c r="J78" t="n">
+        <v>6</v>
+      </c>
+      <c r="K78" t="n">
+        <v>51.38888888888889</v>
+      </c>
+      <c r="L78" t="n">
+        <v>41.66666666666666</v>
+      </c>
+      <c r="M78" t="n">
+        <v>50</v>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>2024-05-10_12-44-09</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>MRI_PET</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>Baseline3DCNN - Simple model architecture</t>
+        </is>
+      </c>
+      <c r="R78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>2</v>
+      </c>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="n">
+        <v>16</v>
+      </c>
+      <c r="D79" t="n">
+        <v>2</v>
+      </c>
+      <c r="E79" t="n">
+        <v>2</v>
+      </c>
+      <c r="F79" t="n">
+        <v>128</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>CrossEntropyLoss</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>20</v>
+      </c>
+      <c r="J79" t="n">
+        <v>1</v>
+      </c>
+      <c r="K79" t="n">
+        <v>56.57894736842105</v>
+      </c>
+      <c r="L79" t="n">
+        <v>50</v>
+      </c>
+      <c r="M79" t="n">
+        <v>50</v>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>2024-05-10_12-45-35</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>MRI_PET</t>
+        </is>
+      </c>
+      <c r="P79" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>Baseline3DCNN - Simple model architecture</t>
+        </is>
+      </c>
+      <c r="R79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>2</v>
+      </c>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="n">
+        <v>16</v>
+      </c>
+      <c r="D80" t="n">
+        <v>2</v>
+      </c>
+      <c r="E80" t="n">
+        <v>2</v>
+      </c>
+      <c r="F80" t="n">
+        <v>128</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>CrossEntropyLoss</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>20</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2</v>
+      </c>
+      <c r="K80" t="n">
+        <v>50</v>
+      </c>
+      <c r="L80" t="n">
+        <v>50</v>
+      </c>
+      <c r="M80" t="n">
+        <v>50</v>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>2024-05-10_12-46-49</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>MRI_PET</t>
+        </is>
+      </c>
+      <c r="P80" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>Baseline3DCNN - Simple model architecture</t>
+        </is>
+      </c>
+      <c r="R80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>2</v>
+      </c>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="n">
+        <v>16</v>
+      </c>
+      <c r="D81" t="n">
+        <v>2</v>
+      </c>
+      <c r="E81" t="n">
+        <v>2</v>
+      </c>
+      <c r="F81" t="n">
+        <v>128</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>CrossEntropyLoss</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>20</v>
+      </c>
+      <c r="J81" t="n">
+        <v>3</v>
+      </c>
+      <c r="K81" t="n">
+        <v>65.33333333333333</v>
+      </c>
+      <c r="L81" t="n">
+        <v>45.83333333333334</v>
+      </c>
+      <c r="M81" t="n">
+        <v>50</v>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>2024-05-10_12-49-08</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>MRI_PET</t>
+        </is>
+      </c>
+      <c r="P81" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>Baseline3DCNN - Simple model architecture</t>
+        </is>
+      </c>
+      <c r="R81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>2</v>
+      </c>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="n">
+        <v>16</v>
+      </c>
+      <c r="D82" t="n">
+        <v>2</v>
+      </c>
+      <c r="E82" t="n">
+        <v>2</v>
+      </c>
+      <c r="F82" t="n">
+        <v>128</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>CrossEntropyLoss</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>20</v>
+      </c>
+      <c r="J82" t="n">
+        <v>4</v>
+      </c>
+      <c r="K82" t="n">
+        <v>55.26315789473684</v>
+      </c>
+      <c r="L82" t="n">
+        <v>50</v>
+      </c>
+      <c r="M82" t="n">
+        <v>50</v>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>2024-05-10_13-00-47</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>MRI_PET</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>Baseline3DCNN - Simple model architecture</t>
+        </is>
+      </c>
+      <c r="R82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>2</v>
+      </c>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="n">
+        <v>16</v>
+      </c>
+      <c r="D83" t="n">
+        <v>2</v>
+      </c>
+      <c r="E83" t="n">
+        <v>2</v>
+      </c>
+      <c r="F83" t="n">
+        <v>128</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>CrossEntropyLoss</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>20</v>
+      </c>
+      <c r="J83" t="n">
+        <v>5</v>
+      </c>
+      <c r="K83" t="n">
+        <v>58.66666666666666</v>
+      </c>
+      <c r="L83" t="n">
+        <v>52</v>
+      </c>
+      <c r="M83" t="n">
+        <v>60</v>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>2024-05-10_13-13-29</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>MRI_PET</t>
+        </is>
+      </c>
+      <c r="P83" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>Baseline3DCNN - Simple model architecture</t>
+        </is>
+      </c>
+      <c r="R83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>2</v>
+      </c>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="n">
+        <v>16</v>
+      </c>
+      <c r="D84" t="n">
+        <v>2</v>
+      </c>
+      <c r="E84" t="n">
+        <v>2</v>
+      </c>
+      <c r="F84" t="n">
+        <v>128</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>CrossEntropyLoss</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>20</v>
+      </c>
+      <c r="J84" t="n">
+        <v>6</v>
+      </c>
+      <c r="K84" t="n">
+        <v>55.55555555555556</v>
+      </c>
+      <c r="L84" t="n">
+        <v>45.83333333333334</v>
+      </c>
+      <c r="M84" t="n">
+        <v>50</v>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>2024-05-10_13-22-10</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>MRI_PET</t>
+        </is>
+      </c>
+      <c r="P84" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>Baseline3DCNN - Simple model architecture</t>
+        </is>
+      </c>
+      <c r="R84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>2</v>
+      </c>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="n">
+        <v>16</v>
+      </c>
+      <c r="D85" t="n">
+        <v>3</v>
+      </c>
+      <c r="E85" t="n">
+        <v>2</v>
+      </c>
+      <c r="F85" t="n">
+        <v>128</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>CrossEntropyLoss</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>20</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1</v>
+      </c>
+      <c r="K85" t="n">
+        <v>50</v>
+      </c>
+      <c r="L85" t="n">
+        <v>50</v>
+      </c>
+      <c r="M85" t="n">
+        <v>50</v>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>2024-05-10_13-23-29</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>MRI_PET</t>
+        </is>
+      </c>
+      <c r="P85" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>Baseline3DCNN - Simple model architecture</t>
+        </is>
+      </c>
+      <c r="R85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>2</v>
+      </c>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="n">
+        <v>32</v>
+      </c>
+      <c r="D86" t="n">
+        <v>2</v>
+      </c>
+      <c r="E86" t="n">
+        <v>2</v>
+      </c>
+      <c r="F86" t="n">
+        <v>128</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>CrossEntropyLoss</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>20</v>
+      </c>
+      <c r="J86" t="n">
+        <v>4</v>
+      </c>
+      <c r="K86" t="n">
+        <v>63.1578947368421</v>
+      </c>
+      <c r="L86" t="n">
+        <v>45.83333333333334</v>
+      </c>
+      <c r="M86" t="n">
+        <v>50</v>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>2024-05-10_13-55-05</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>PET</t>
+        </is>
+      </c>
+      <c r="P86" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>Baseline3DCNN - Simple model architecture</t>
+        </is>
+      </c>
+      <c r="R86" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/reports/RESULTS.xlsx
+++ b/reports/RESULTS.xlsx
@@ -16,18 +16,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <b val="1"/>
-      <sz val="11"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -79,15 +74,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -455,101 +447,106 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R86"/>
+  <dimension ref="A1:R87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="P46" sqref="P46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.23046875" defaultRowHeight="14.6"/>
+  <cols>
+    <col width="17.69140625" customWidth="1" min="11" max="11"/>
+    <col width="14.07421875" customWidth="1" min="12" max="12"/>
+    <col width="26.15234375" customWidth="1" min="13" max="13"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>num_classes</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>lr</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>init_filters</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>kernel_size</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>stride</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>num_fc_units</t>
         </is>
       </c>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>optimizer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>loss_criterion</t>
         </is>
       </c>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>num_epochs</t>
         </is>
       </c>
-      <c r="J1" s="3" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>batch_size</t>
         </is>
       </c>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t>Training Accuracy</t>
         </is>
       </c>
-      <c r="L1" s="3" t="inlineStr">
+      <c r="L1" s="2" t="inlineStr">
         <is>
           <t>Validation Accuracy</t>
         </is>
       </c>
-      <c r="M1" s="3" t="inlineStr">
+      <c r="M1" s="2" t="inlineStr">
         <is>
           <t>Test Accuracy</t>
         </is>
       </c>
-      <c r="N1" s="3" t="inlineStr">
+      <c r="N1" s="2" t="inlineStr">
         <is>
           <t>DATETIME</t>
         </is>
       </c>
-      <c r="O1" s="3" t="inlineStr">
+      <c r="O1" s="2" t="inlineStr">
         <is>
           <t>image_type</t>
         </is>
       </c>
-      <c r="P1" s="3" t="inlineStr">
+      <c r="P1" s="2" t="inlineStr">
         <is>
           <t>patience</t>
         </is>
       </c>
-      <c r="Q1" s="3" t="inlineStr">
+      <c r="Q1" s="2" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="R1" s="3" t="inlineStr">
+      <c r="R1" s="2" t="inlineStr">
         <is>
           <t>sample_size</t>
         </is>
@@ -5427,6 +5424,68 @@
       </c>
       <c r="R86" t="inlineStr"/>
     </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>2</v>
+      </c>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="n">
+        <v>256</v>
+      </c>
+      <c r="D87" t="n">
+        <v>2</v>
+      </c>
+      <c r="E87" t="n">
+        <v>2</v>
+      </c>
+      <c r="F87" t="n">
+        <v>128</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>CrossEntropyLoss</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>60</v>
+      </c>
+      <c r="J87" t="n">
+        <v>4</v>
+      </c>
+      <c r="K87" t="n">
+        <v>52.63157894736842</v>
+      </c>
+      <c r="L87" t="n">
+        <v>50</v>
+      </c>
+      <c r="M87" t="n">
+        <v>50</v>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>2024-05-10_15-23-56</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>PET</t>
+        </is>
+      </c>
+      <c r="P87" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>Baseline3DCNN - Simple model architecture</t>
+        </is>
+      </c>
+      <c r="R87" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/reports/RESULTS.xlsx
+++ b/reports/RESULTS.xlsx
@@ -491,7 +491,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -579,6 +579,11 @@
           <t>weight_decay</t>
         </is>
       </c>
+      <c r="N1" s="10" t="inlineStr">
+        <is>
+          <t>momentum</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="18.75" customHeight="1">
       <c r="A2" s="7" t="inlineStr">
@@ -628,6 +633,7 @@
         </is>
       </c>
       <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3" ht="18.75" customHeight="1">
       <c r="A3" s="7" t="inlineStr">
@@ -677,6 +683,7 @@
         </is>
       </c>
       <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4" ht="18.75" customHeight="1">
       <c r="A4" s="7" t="inlineStr">
@@ -726,6 +733,7 @@
         </is>
       </c>
       <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5" ht="18.75" customHeight="1">
       <c r="A5" s="7" t="inlineStr">
@@ -775,6 +783,7 @@
         </is>
       </c>
       <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -824,6 +833,7 @@
         </is>
       </c>
       <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -873,6 +883,7 @@
         </is>
       </c>
       <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -922,6 +933,7 @@
         </is>
       </c>
       <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -971,6 +983,7 @@
         </is>
       </c>
       <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1020,6 +1033,7 @@
         </is>
       </c>
       <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1069,6 +1083,7 @@
         </is>
       </c>
       <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1118,6 +1133,7 @@
         </is>
       </c>
       <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1167,6 +1183,7 @@
         </is>
       </c>
       <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1216,6 +1233,7 @@
         </is>
       </c>
       <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1265,6 +1283,7 @@
         </is>
       </c>
       <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1314,6 +1333,7 @@
         </is>
       </c>
       <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1363,6 +1383,7 @@
         </is>
       </c>
       <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1412,6 +1433,7 @@
         </is>
       </c>
       <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1461,6 +1483,7 @@
         </is>
       </c>
       <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1510,6 +1533,7 @@
         </is>
       </c>
       <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1559,6 +1583,7 @@
         </is>
       </c>
       <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1608,6 +1633,7 @@
         </is>
       </c>
       <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1657,6 +1683,1131 @@
         </is>
       </c>
       <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>BCEWithLogits</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>200</v>
+      </c>
+      <c r="E24" t="n">
+        <v>8</v>
+      </c>
+      <c r="F24" t="n">
+        <v>50</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>SGD optimizer</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Resampled Images_fused</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>56.08974358974359</v>
+      </c>
+      <c r="J24" t="n">
+        <v>50</v>
+      </c>
+      <c r="K24" t="n">
+        <v>390.9090909090909</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>2024-05-14_13-01-09</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>BCEWithLogits</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="n">
+        <v>8</v>
+      </c>
+      <c r="F25" t="n">
+        <v>50</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Resampled Images_fused</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>50</v>
+      </c>
+      <c r="J25" t="n">
+        <v>55</v>
+      </c>
+      <c r="K25" t="n">
+        <v>45.45454545454545</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>2024-05-14_13-12-48</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>BCEWithLogits</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>150</v>
+      </c>
+      <c r="E26" t="n">
+        <v>8</v>
+      </c>
+      <c r="F26" t="n">
+        <v>50</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Resampled Images_fused</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>81.08974358974359</v>
+      </c>
+      <c r="J26" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="K26" t="n">
+        <v>40.90909090909091</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>2024-05-14_13-33-27</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>BCEWithLogits</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>200</v>
+      </c>
+      <c r="E27" t="n">
+        <v>16</v>
+      </c>
+      <c r="F27" t="n">
+        <v>20</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Overnight test of learning rates, optimizer and loss criterions</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Resampled Images(Spatial Normalization)</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>48.68421052631579</v>
+      </c>
+      <c r="J27" t="n">
+        <v>59.375</v>
+      </c>
+      <c r="K27" t="n">
+        <v>55</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>2024-05-14_13-48-31</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>BCEWithLogits</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>200</v>
+      </c>
+      <c r="E28" t="n">
+        <v>16</v>
+      </c>
+      <c r="F28" t="n">
+        <v>20</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Overnight test of learning rates, optimizer and loss criterions</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Resampled Images(Spatial Normalization)</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>58.22368421052632</v>
+      </c>
+      <c r="J28" t="n">
+        <v>59.375</v>
+      </c>
+      <c r="K28" t="n">
+        <v>56.25</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>2024-05-14_13-53-40</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>BCEWithLogits</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>200</v>
+      </c>
+      <c r="E29" t="n">
+        <v>16</v>
+      </c>
+      <c r="F29" t="n">
+        <v>20</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Overnight test of learning rates, optimizer and loss criterions</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Resampled Images(Spatial Normalization)</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>50.6578947368421</v>
+      </c>
+      <c r="J29" t="n">
+        <v>53.125</v>
+      </c>
+      <c r="K29" t="n">
+        <v>51.25</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>2024-05-14_13-58-41</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>BCEWithLogits</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>200</v>
+      </c>
+      <c r="E30" t="n">
+        <v>16</v>
+      </c>
+      <c r="F30" t="n">
+        <v>20</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Overnight test of learning rates, optimizer and loss criterions</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Resampled Images(Spatial Normalization)</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>50</v>
+      </c>
+      <c r="J30" t="n">
+        <v>40.625</v>
+      </c>
+      <c r="K30" t="n">
+        <v>50</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>2024-05-14_14-03-27</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>BCEWithLogits</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>200</v>
+      </c>
+      <c r="E31" t="n">
+        <v>16</v>
+      </c>
+      <c r="F31" t="n">
+        <v>20</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Overnight test of learning rates, optimizer and loss criterions</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Resampled Images(Spatial Normalization)</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>51.64473684210526</v>
+      </c>
+      <c r="J31" t="n">
+        <v>50</v>
+      </c>
+      <c r="K31" t="n">
+        <v>53.75</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>2024-05-14_14-08-05</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>BCEWithLogits</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>200</v>
+      </c>
+      <c r="E32" t="n">
+        <v>16</v>
+      </c>
+      <c r="F32" t="n">
+        <v>20</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Overnight test of learning rates, optimizer and loss criterions</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Resampled Images(Spatial Normalization)</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>47.03947368421053</v>
+      </c>
+      <c r="J32" t="n">
+        <v>43.75</v>
+      </c>
+      <c r="K32" t="n">
+        <v>56.25</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>2024-05-14_14-12-21</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>BCEWithLogits</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>200</v>
+      </c>
+      <c r="E33" t="n">
+        <v>16</v>
+      </c>
+      <c r="F33" t="n">
+        <v>20</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Overnight test of learning rates, optimizer and loss criterions</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Resampled Images(Spatial Normalization)</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>52.96052631578947</v>
+      </c>
+      <c r="J33" t="n">
+        <v>53.125</v>
+      </c>
+      <c r="K33" t="n">
+        <v>55</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>2024-05-14_14-16-44</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>BCEWithLogits</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>200</v>
+      </c>
+      <c r="E34" t="n">
+        <v>16</v>
+      </c>
+      <c r="F34" t="n">
+        <v>20</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Overnight test of learning rates, optimizer and loss criterions</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Resampled Images(Spatial Normalization)</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>51.64473684210526</v>
+      </c>
+      <c r="J34" t="n">
+        <v>59.375</v>
+      </c>
+      <c r="K34" t="n">
+        <v>50</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>2024-05-14_14-23-21</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>BCEWithLogits</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>200</v>
+      </c>
+      <c r="E35" t="n">
+        <v>16</v>
+      </c>
+      <c r="F35" t="n">
+        <v>20</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Overnight test of learning rates, optimizer and loss criterions</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Resampled Images(Masked PET)</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>56.9078947368421</v>
+      </c>
+      <c r="J35" t="n">
+        <v>46.875</v>
+      </c>
+      <c r="K35" t="n">
+        <v>50</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>2024-05-14_14-51-05</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>BCEWithLogits</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>200</v>
+      </c>
+      <c r="E36" t="n">
+        <v>16</v>
+      </c>
+      <c r="F36" t="n">
+        <v>20</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Overnight test of learning rates, optimizer and loss criterions</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Resampled Images(Masked PET)</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>50</v>
+      </c>
+      <c r="J36" t="n">
+        <v>56.25</v>
+      </c>
+      <c r="K36" t="n">
+        <v>55</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>2024-05-14_14-56-47</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>BCEWithLogits</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>200</v>
+      </c>
+      <c r="E37" t="n">
+        <v>16</v>
+      </c>
+      <c r="F37" t="n">
+        <v>20</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Overnight test of learning rates, optimizer and loss criterions</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Resampled Images(Masked PET)</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>51.97368421052632</v>
+      </c>
+      <c r="J37" t="n">
+        <v>40.625</v>
+      </c>
+      <c r="K37" t="n">
+        <v>51.25</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>2024-05-14_15-01-47</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>BCEWithLogits</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>200</v>
+      </c>
+      <c r="E38" t="n">
+        <v>16</v>
+      </c>
+      <c r="F38" t="n">
+        <v>20</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Overnight test of learning rates, optimizer and loss criterions</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Resampled Images(Masked PET)</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>45.39473684210526</v>
+      </c>
+      <c r="J38" t="n">
+        <v>59.375</v>
+      </c>
+      <c r="K38" t="n">
+        <v>50</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>2024-05-14_15-09-43</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>BCEWithLogits</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>200</v>
+      </c>
+      <c r="E39" t="n">
+        <v>16</v>
+      </c>
+      <c r="F39" t="n">
+        <v>20</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Overnight test of learning rates, optimizer and loss criterions</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Resampled Images(Masked PET)</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>50.98684210526316</v>
+      </c>
+      <c r="J39" t="n">
+        <v>40.625</v>
+      </c>
+      <c r="K39" t="n">
+        <v>50</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>2024-05-14_15-14-13</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>BCEWithLogits</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>200</v>
+      </c>
+      <c r="E40" t="n">
+        <v>16</v>
+      </c>
+      <c r="F40" t="n">
+        <v>20</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Overnight test of learning rates, optimizer and loss criterions</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Resampled Images(Masked PET)</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>50.32894736842105</v>
+      </c>
+      <c r="J40" t="n">
+        <v>43.75</v>
+      </c>
+      <c r="K40" t="n">
+        <v>48.75</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>2024-05-14_15-18-16</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>BCEWithLogits</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>200</v>
+      </c>
+      <c r="E41" t="n">
+        <v>16</v>
+      </c>
+      <c r="F41" t="n">
+        <v>20</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Overnight test of learning rates, optimizer and loss criterions</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Resampled Images(Masked PET)</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>50.98684210526316</v>
+      </c>
+      <c r="J41" t="n">
+        <v>40.625</v>
+      </c>
+      <c r="K41" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>2024-05-14_15-23-07</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>BCEWithLogits</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>200</v>
+      </c>
+      <c r="E42" t="n">
+        <v>16</v>
+      </c>
+      <c r="F42" t="n">
+        <v>20</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Overnight test of learning rates, optimizer and loss criterions</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Resampled Images(Masked PET)</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>49.67105263157895</v>
+      </c>
+      <c r="J42" t="n">
+        <v>40.625</v>
+      </c>
+      <c r="K42" t="n">
+        <v>50</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>2024-05-14_15-27-35</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>BCEWithLogits</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>150</v>
+      </c>
+      <c r="E43" t="n">
+        <v>8</v>
+      </c>
+      <c r="F43" t="n">
+        <v>50</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Resampled Images_fused</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>50</v>
+      </c>
+      <c r="J43" t="n">
+        <v>45</v>
+      </c>
+      <c r="K43" t="n">
+        <v>51.13636363636363</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>2024-05-14_17-50-15</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>BCEWithLogits</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>150</v>
+      </c>
+      <c r="E44" t="n">
+        <v>8</v>
+      </c>
+      <c r="F44" t="n">
+        <v>50</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Resampled Images(Co-registered PET)</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>50</v>
+      </c>
+      <c r="J44" t="n">
+        <v>45</v>
+      </c>
+      <c r="K44" t="n">
+        <v>51.13636363636363</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>2024-05-14_18-10-31</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>BCEWithLogits</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>150</v>
+      </c>
+      <c r="E45" t="n">
+        <v>8</v>
+      </c>
+      <c r="F45" t="n">
+        <v>50</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Resampled Images(Masked PET)</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>49.03846153846154</v>
+      </c>
+      <c r="J45" t="n">
+        <v>45</v>
+      </c>
+      <c r="K45" t="n">
+        <v>51.13636363636363</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>2024-05-14_18-31-10</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/reports/RESULTS.xlsx
+++ b/reports/RESULTS.xlsx
@@ -491,7 +491,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N45"/>
+  <dimension ref="A1:P56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,6 +584,16 @@
           <t>momentum</t>
         </is>
       </c>
+      <c r="O1" s="10" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
+      </c>
+      <c r="P1" s="10" t="inlineStr">
+        <is>
+          <t>sample_size</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="18.75" customHeight="1">
       <c r="A2" s="7" t="inlineStr">
@@ -634,6 +644,8 @@
       </c>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
     </row>
     <row r="3" ht="18.75" customHeight="1">
       <c r="A3" s="7" t="inlineStr">
@@ -684,6 +696,8 @@
       </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
     </row>
     <row r="4" ht="18.75" customHeight="1">
       <c r="A4" s="7" t="inlineStr">
@@ -734,6 +748,8 @@
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
     </row>
     <row r="5" ht="18.75" customHeight="1">
       <c r="A5" s="7" t="inlineStr">
@@ -784,6 +800,8 @@
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -834,6 +852,8 @@
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -884,6 +904,8 @@
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -934,6 +956,8 @@
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -984,6 +1008,8 @@
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1034,6 +1060,8 @@
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1084,6 +1112,8 @@
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1134,6 +1164,8 @@
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1184,6 +1216,8 @@
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1234,6 +1268,8 @@
       </c>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1284,6 +1320,8 @@
       </c>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1334,6 +1372,8 @@
       </c>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1384,6 +1424,8 @@
       </c>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1434,6 +1476,8 @@
       </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1484,6 +1528,8 @@
       </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1534,6 +1580,8 @@
       </c>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1584,6 +1632,8 @@
       </c>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1634,6 +1684,8 @@
       </c>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1684,6 +1736,8 @@
       </c>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1738,6 +1792,8 @@
       <c r="N24" t="n">
         <v>0.9</v>
       </c>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1792,6 +1848,8 @@
       <c r="N25" t="n">
         <v>0.9</v>
       </c>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1846,6 +1904,8 @@
       <c r="N26" t="n">
         <v>0.9</v>
       </c>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1896,6 +1956,8 @@
       </c>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1946,6 +2008,8 @@
       </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1996,6 +2060,8 @@
       </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2046,6 +2112,8 @@
       </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2096,6 +2164,8 @@
       </c>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2146,6 +2216,8 @@
       </c>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2196,6 +2268,8 @@
       </c>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2246,6 +2320,8 @@
       </c>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2296,6 +2372,8 @@
       </c>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2346,6 +2424,8 @@
       </c>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2396,6 +2476,8 @@
       </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2446,6 +2528,8 @@
       </c>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2496,6 +2580,8 @@
       </c>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2546,6 +2632,8 @@
       </c>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2596,6 +2684,8 @@
       </c>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2646,6 +2736,8 @@
       </c>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2700,6 +2792,8 @@
       <c r="N43" t="n">
         <v>0.9</v>
       </c>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2754,6 +2848,8 @@
       <c r="N44" t="n">
         <v>0.9</v>
       </c>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2808,6 +2904,626 @@
       <c r="N45" t="n">
         <v>0.9</v>
       </c>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>BCEWithLogits</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>150</v>
+      </c>
+      <c r="E46" t="n">
+        <v>8</v>
+      </c>
+      <c r="F46" t="n">
+        <v>20</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Resampled Images_fused</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>59.93589743589744</v>
+      </c>
+      <c r="J46" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="K46" t="n">
+        <v>56.81818181818182</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>2024-05-14_19-01-37</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>BCEWithLogits</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>150</v>
+      </c>
+      <c r="E47" t="n">
+        <v>8</v>
+      </c>
+      <c r="F47" t="n">
+        <v>20</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Resampled Images(Co-registered PET)</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>53.84615384615385</v>
+      </c>
+      <c r="J47" t="n">
+        <v>50</v>
+      </c>
+      <c r="K47" t="n">
+        <v>50</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>2024-05-14_19-14-10</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>BCEWithLogits</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>150</v>
+      </c>
+      <c r="E48" t="n">
+        <v>8</v>
+      </c>
+      <c r="F48" t="n">
+        <v>20</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Resampled Images(Masked PET)</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>55.44871794871795</v>
+      </c>
+      <c r="J48" t="n">
+        <v>65</v>
+      </c>
+      <c r="K48" t="n">
+        <v>45.45454545454545</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>2024-05-14_19-24-00</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>BCEWithLogits</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>150</v>
+      </c>
+      <c r="E49" t="n">
+        <v>8</v>
+      </c>
+      <c r="F49" t="n">
+        <v>20</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Resampled Images(Spatial Normalization)</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>46.7948717948718</v>
+      </c>
+      <c r="J49" t="n">
+        <v>55</v>
+      </c>
+      <c r="K49" t="n">
+        <v>53.40909090909091</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>2024-05-14_19-34-55</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>BCEWithLogits</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" t="n">
+        <v>8</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Fused Images</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>50</v>
+      </c>
+      <c r="J50" t="n">
+        <v>55</v>
+      </c>
+      <c r="K50" t="n">
+        <v>48.86363636363637</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>2024-05-14_21-14-33</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>BASELINE</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>BCEWithLogits</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>200</v>
+      </c>
+      <c r="E51" t="n">
+        <v>8</v>
+      </c>
+      <c r="F51" t="n">
+        <v>20</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Fused Images</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>51.28205128205128</v>
+      </c>
+      <c r="J51" t="n">
+        <v>55</v>
+      </c>
+      <c r="K51" t="n">
+        <v>54.54545454545455</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>2024-05-14_21-34-21</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>BASELINE initial tests with new dataset</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>BCEWithLogits</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>200</v>
+      </c>
+      <c r="E52" t="n">
+        <v>8</v>
+      </c>
+      <c r="F52" t="n">
+        <v>20</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Co-registered PET</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>50.32051282051282</v>
+      </c>
+      <c r="J52" t="n">
+        <v>55</v>
+      </c>
+      <c r="K52" t="n">
+        <v>48.86363636363637</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>2024-05-14_21-47-41</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>BASELINE initial tests with new dataset</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>BCEWithLogits</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>200</v>
+      </c>
+      <c r="E53" t="n">
+        <v>8</v>
+      </c>
+      <c r="F53" t="n">
+        <v>20</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Masked PET</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>50.32051282051282</v>
+      </c>
+      <c r="J53" t="n">
+        <v>55</v>
+      </c>
+      <c r="K53" t="n">
+        <v>48.86363636363637</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>2024-05-14_22-00-14</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>BASELINE initial tests with new dataset</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>BCEWithLogits</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>200</v>
+      </c>
+      <c r="E54" t="n">
+        <v>8</v>
+      </c>
+      <c r="F54" t="n">
+        <v>20</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Spatial Normalization</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>50.32051282051282</v>
+      </c>
+      <c r="J54" t="n">
+        <v>55</v>
+      </c>
+      <c r="K54" t="n">
+        <v>48.86363636363637</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>2024-05-14_22-15-57</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>BASELINE initial tests with new dataset</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>BCEWithLogits</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>1</v>
+      </c>
+      <c r="E55" t="n">
+        <v>4</v>
+      </c>
+      <c r="F55" t="n">
+        <v>20</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Fused Images</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>75</v>
+      </c>
+      <c r="J55" t="n">
+        <v>50</v>
+      </c>
+      <c r="K55" t="n">
+        <v>43.18181818181818</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>2024-05-14_23-36-51</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>BCEWithLogits</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>100</v>
+      </c>
+      <c r="E56" t="n">
+        <v>4</v>
+      </c>
+      <c r="F56" t="n">
+        <v>20</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>REAL DIMENSIONS</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Fused Images</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>41.02564102564103</v>
+      </c>
+      <c r="J56" t="n">
+        <v>47.72727272727273</v>
+      </c>
+      <c r="K56" t="n">
+        <v>51.13636363636363</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>2024-05-15_07-23-32</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/reports/RESULTS.xlsx
+++ b/reports/RESULTS.xlsx
@@ -484,7 +484,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q105"/>
+  <dimension ref="A1:T117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K24" sqref="K24"/>
@@ -589,6 +589,21 @@
           <t>After_balance</t>
         </is>
       </c>
+      <c r="R1" s="8" t="inlineStr">
+        <is>
+          <t>num_filters</t>
+        </is>
+      </c>
+      <c r="S1" s="8" t="inlineStr">
+        <is>
+          <t>stride</t>
+        </is>
+      </c>
+      <c r="T1" s="8" t="inlineStr">
+        <is>
+          <t>kernel</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="18.75" customHeight="1">
       <c r="A2" t="inlineStr">
@@ -642,6 +657,9 @@
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
     </row>
     <row r="3" ht="18.75" customHeight="1">
       <c r="A3" t="inlineStr">
@@ -695,6 +713,9 @@
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
     </row>
     <row r="4" ht="18.75" customHeight="1">
       <c r="A4" t="inlineStr">
@@ -748,6 +769,9 @@
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
     </row>
     <row r="5" ht="18.75" customHeight="1">
       <c r="A5" t="inlineStr">
@@ -801,6 +825,9 @@
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -854,6 +881,9 @@
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -907,6 +937,9 @@
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -960,6 +993,9 @@
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1013,6 +1049,9 @@
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1066,6 +1105,9 @@
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1119,6 +1161,9 @@
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1172,6 +1217,9 @@
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1225,6 +1273,9 @@
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1278,6 +1329,9 @@
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1331,6 +1385,9 @@
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1384,6 +1441,9 @@
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1437,6 +1497,9 @@
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1490,6 +1553,9 @@
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1543,6 +1609,9 @@
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1596,6 +1665,9 @@
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1649,6 +1721,9 @@
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1702,6 +1777,9 @@
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1755,6 +1833,9 @@
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1812,6 +1893,9 @@
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1869,6 +1953,9 @@
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1922,6 +2009,9 @@
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1975,6 +2065,9 @@
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2028,6 +2121,9 @@
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2081,6 +2177,9 @@
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2134,6 +2233,9 @@
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2187,6 +2289,9 @@
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2240,6 +2345,9 @@
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2293,6 +2401,9 @@
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2346,6 +2457,9 @@
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2399,6 +2513,9 @@
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2452,6 +2569,9 @@
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2505,6 +2625,9 @@
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2558,6 +2681,9 @@
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2611,6 +2737,9 @@
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2664,6 +2793,9 @@
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2717,6 +2849,9 @@
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2774,6 +2909,9 @@
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2831,6 +2969,9 @@
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2888,6 +3029,9 @@
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2945,6 +3089,9 @@
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3002,6 +3149,9 @@
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3059,6 +3209,9 @@
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3116,6 +3269,9 @@
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3173,6 +3329,9 @@
       </c>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3230,6 +3389,9 @@
       </c>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3287,6 +3449,9 @@
       </c>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3344,6 +3509,9 @@
       </c>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr"/>
+      <c r="T52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3401,6 +3569,9 @@
       </c>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr"/>
+      <c r="T53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3460,6 +3631,9 @@
         <v>4</v>
       </c>
       <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
+      <c r="T54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3517,6 +3691,9 @@
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr"/>
+      <c r="T55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3576,6 +3753,9 @@
         <v>8</v>
       </c>
       <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr"/>
+      <c r="T56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3635,6 +3815,9 @@
         <v>8</v>
       </c>
       <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
+      <c r="T57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3694,6 +3877,9 @@
         <v>8</v>
       </c>
       <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
+      <c r="T58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3753,6 +3939,9 @@
         <v>8</v>
       </c>
       <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
+      <c r="S59" t="inlineStr"/>
+      <c r="T59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3810,6 +3999,9 @@
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
+      <c r="S60" t="inlineStr"/>
+      <c r="T60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3867,6 +4059,9 @@
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
+      <c r="S61" t="inlineStr"/>
+      <c r="T61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3924,6 +4119,9 @@
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr"/>
+      <c r="T62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3981,6 +4179,9 @@
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr"/>
+      <c r="S63" t="inlineStr"/>
+      <c r="T63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4038,6 +4239,9 @@
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
+      <c r="T64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4095,6 +4299,9 @@
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
+      <c r="S65" t="inlineStr"/>
+      <c r="T65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4148,6 +4355,9 @@
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr"/>
+      <c r="S66" t="inlineStr"/>
+      <c r="T66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4201,6 +4411,9 @@
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
+      <c r="S67" t="inlineStr"/>
+      <c r="T67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4254,6 +4467,9 @@
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr"/>
+      <c r="S68" t="inlineStr"/>
+      <c r="T68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4307,6 +4523,9 @@
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr"/>
+      <c r="T69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4360,6 +4579,9 @@
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr"/>
+      <c r="S70" t="inlineStr"/>
+      <c r="T70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4413,6 +4635,9 @@
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr"/>
+      <c r="T71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4466,6 +4691,9 @@
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr"/>
+      <c r="T72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4519,6 +4747,9 @@
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
+      <c r="S73" t="inlineStr"/>
+      <c r="T73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4576,6 +4807,9 @@
       </c>
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
+      <c r="S74" t="inlineStr"/>
+      <c r="T74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4633,6 +4867,9 @@
       </c>
       <c r="P75" t="inlineStr"/>
       <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
+      <c r="S75" t="inlineStr"/>
+      <c r="T75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4690,6 +4927,9 @@
       </c>
       <c r="P76" t="inlineStr"/>
       <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr"/>
+      <c r="S76" t="inlineStr"/>
+      <c r="T76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -4747,6 +4987,9 @@
       </c>
       <c r="P77" t="inlineStr"/>
       <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr"/>
+      <c r="S77" t="inlineStr"/>
+      <c r="T77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -4804,6 +5047,9 @@
       </c>
       <c r="P78" t="inlineStr"/>
       <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr"/>
+      <c r="S78" t="inlineStr"/>
+      <c r="T78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -4861,6 +5107,9 @@
       </c>
       <c r="P79" t="inlineStr"/>
       <c r="Q79" t="inlineStr"/>
+      <c r="R79" t="inlineStr"/>
+      <c r="S79" t="inlineStr"/>
+      <c r="T79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -4918,6 +5167,9 @@
       </c>
       <c r="P80" t="inlineStr"/>
       <c r="Q80" t="inlineStr"/>
+      <c r="R80" t="inlineStr"/>
+      <c r="S80" t="inlineStr"/>
+      <c r="T80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -4975,6 +5227,9 @@
       </c>
       <c r="P81" t="inlineStr"/>
       <c r="Q81" t="inlineStr"/>
+      <c r="R81" t="inlineStr"/>
+      <c r="S81" t="inlineStr"/>
+      <c r="T81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -5032,6 +5287,9 @@
       <c r="O82" t="inlineStr"/>
       <c r="P82" t="inlineStr"/>
       <c r="Q82" t="inlineStr"/>
+      <c r="R82" t="inlineStr"/>
+      <c r="S82" t="inlineStr"/>
+      <c r="T82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -5089,6 +5347,9 @@
       <c r="O83" t="inlineStr"/>
       <c r="P83" t="inlineStr"/>
       <c r="Q83" t="inlineStr"/>
+      <c r="R83" t="inlineStr"/>
+      <c r="S83" t="inlineStr"/>
+      <c r="T83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -5150,6 +5411,9 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="R84" t="inlineStr"/>
+      <c r="S84" t="inlineStr"/>
+      <c r="T84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -5211,6 +5475,9 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="R85" t="inlineStr"/>
+      <c r="S85" t="inlineStr"/>
+      <c r="T85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -5272,6 +5539,9 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="R86" t="inlineStr"/>
+      <c r="S86" t="inlineStr"/>
+      <c r="T86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -5333,6 +5603,9 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="R87" t="inlineStr"/>
+      <c r="S87" t="inlineStr"/>
+      <c r="T87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -5394,6 +5667,9 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="R88" t="inlineStr"/>
+      <c r="S88" t="inlineStr"/>
+      <c r="T88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -5455,6 +5731,9 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="R89" t="inlineStr"/>
+      <c r="S89" t="inlineStr"/>
+      <c r="T89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -5516,6 +5795,9 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="R90" t="inlineStr"/>
+      <c r="S90" t="inlineStr"/>
+      <c r="T90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -5577,6 +5859,9 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="R91" t="inlineStr"/>
+      <c r="S91" t="inlineStr"/>
+      <c r="T91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -5638,6 +5923,9 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="R92" t="inlineStr"/>
+      <c r="S92" t="inlineStr"/>
+      <c r="T92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -5699,6 +5987,9 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="R93" t="inlineStr"/>
+      <c r="S93" t="inlineStr"/>
+      <c r="T93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -5760,6 +6051,9 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="R94" t="inlineStr"/>
+      <c r="S94" t="inlineStr"/>
+      <c r="T94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -5821,6 +6115,9 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="R95" t="inlineStr"/>
+      <c r="S95" t="inlineStr"/>
+      <c r="T95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -5882,6 +6179,9 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="R96" t="inlineStr"/>
+      <c r="S96" t="inlineStr"/>
+      <c r="T96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -5943,6 +6243,9 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="R97" t="inlineStr"/>
+      <c r="S97" t="inlineStr"/>
+      <c r="T97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -6004,6 +6307,9 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="R98" t="inlineStr"/>
+      <c r="S98" t="inlineStr"/>
+      <c r="T98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -6065,6 +6371,9 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="R99" t="inlineStr"/>
+      <c r="S99" t="inlineStr"/>
+      <c r="T99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -6126,6 +6435,9 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="R100" t="inlineStr"/>
+      <c r="S100" t="inlineStr"/>
+      <c r="T100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -6187,6 +6499,9 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="R101" t="inlineStr"/>
+      <c r="S101" t="inlineStr"/>
+      <c r="T101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -6248,6 +6563,9 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="R102" t="inlineStr"/>
+      <c r="S102" t="inlineStr"/>
+      <c r="T102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -6309,6 +6627,9 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="R103" t="inlineStr"/>
+      <c r="S103" t="inlineStr"/>
+      <c r="T103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -6370,6 +6691,9 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="R104" t="inlineStr"/>
+      <c r="S104" t="inlineStr"/>
+      <c r="T104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -6431,6 +6755,785 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="R105" t="inlineStr"/>
+      <c r="S105" t="inlineStr"/>
+      <c r="T105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>BCEWithLogits</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>200</v>
+      </c>
+      <c r="E106" t="n">
+        <v>8</v>
+      </c>
+      <c r="F106" t="n">
+        <v>20</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Original PET (OLD)</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>58.33333333333334</v>
+      </c>
+      <c r="J106" t="n">
+        <v>50</v>
+      </c>
+      <c r="K106" t="n">
+        <v>54.16666666666666</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>2024-05-15_19-03-57</t>
+        </is>
+      </c>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="inlineStr"/>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>BASELINE3DCNN</t>
+        </is>
+      </c>
+      <c r="P106" t="inlineStr"/>
+      <c r="Q106" t="inlineStr"/>
+      <c r="R106" t="n">
+        <v>128</v>
+      </c>
+      <c r="S106" t="n">
+        <v>2</v>
+      </c>
+      <c r="T106" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>BCEWithLogits</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>20</v>
+      </c>
+      <c r="E107" t="n">
+        <v>2</v>
+      </c>
+      <c r="F107" t="n">
+        <v>20</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Co-registered PET</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>46.49681528662421</v>
+      </c>
+      <c r="J107" t="n">
+        <v>52.27272727272727</v>
+      </c>
+      <c r="K107" t="n">
+        <v>50</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>2024-05-15_19-25-23</t>
+        </is>
+      </c>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="inlineStr"/>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>BASELINE3DCNN</t>
+        </is>
+      </c>
+      <c r="P107" t="inlineStr"/>
+      <c r="Q107" t="inlineStr"/>
+      <c r="R107" t="n">
+        <v>128</v>
+      </c>
+      <c r="S107" t="n">
+        <v>2</v>
+      </c>
+      <c r="T107" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>BCEWithLogits</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>20</v>
+      </c>
+      <c r="E108" t="n">
+        <v>2</v>
+      </c>
+      <c r="F108" t="n">
+        <v>20</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Fused Images</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>48.08917197452229</v>
+      </c>
+      <c r="J108" t="n">
+        <v>52.27272727272727</v>
+      </c>
+      <c r="K108" t="n">
+        <v>50</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>2024-05-15_19-37-40</t>
+        </is>
+      </c>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="inlineStr"/>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>BASELINE3DCNN</t>
+        </is>
+      </c>
+      <c r="P108" t="inlineStr"/>
+      <c r="Q108" t="inlineStr"/>
+      <c r="R108" t="n">
+        <v>128</v>
+      </c>
+      <c r="S108" t="n">
+        <v>2</v>
+      </c>
+      <c r="T108" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>BCEWithLogits</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>20</v>
+      </c>
+      <c r="E109" t="n">
+        <v>2</v>
+      </c>
+      <c r="F109" t="n">
+        <v>20</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Masked PET</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>49.36305732484077</v>
+      </c>
+      <c r="J109" t="n">
+        <v>52.27272727272727</v>
+      </c>
+      <c r="K109" t="n">
+        <v>50</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>2024-05-15_19-49-46</t>
+        </is>
+      </c>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="inlineStr"/>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>BASELINE3DCNN</t>
+        </is>
+      </c>
+      <c r="P109" t="inlineStr"/>
+      <c r="Q109" t="inlineStr"/>
+      <c r="R109" t="n">
+        <v>128</v>
+      </c>
+      <c r="S109" t="n">
+        <v>2</v>
+      </c>
+      <c r="T109" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>BCEWithLogits</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>200</v>
+      </c>
+      <c r="E110" t="n">
+        <v>10</v>
+      </c>
+      <c r="F110" t="n">
+        <v>50</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>TEST WITH PET DIMENSIONS - Higher learning rate</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Fused Images (RESAMPLED TO PET)</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>65.71428571428571</v>
+      </c>
+      <c r="J110" t="n">
+        <v>90</v>
+      </c>
+      <c r="K110" t="n">
+        <v>66.66666666666667</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>2024-05-15_22-43-20</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
+        <v>0</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="O110" t="inlineStr"/>
+      <c r="P110" t="inlineStr"/>
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="R110" t="inlineStr"/>
+      <c r="S110" t="inlineStr"/>
+      <c r="T110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>BCEWithLogits</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>200</v>
+      </c>
+      <c r="E111" t="n">
+        <v>10</v>
+      </c>
+      <c r="F111" t="n">
+        <v>50</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>TEST WITH PET DIMENSIONS - Higher learning rate</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Fused Images (RESAMPLED TO PET)</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>84.28571428571429</v>
+      </c>
+      <c r="J111" t="n">
+        <v>60</v>
+      </c>
+      <c r="K111" t="n">
+        <v>53.33333333333334</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>2024-05-16_00-21-02</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
+        <v>0</v>
+      </c>
+      <c r="N111" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="O111" t="inlineStr"/>
+      <c r="P111" t="inlineStr"/>
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="R111" t="inlineStr"/>
+      <c r="S111" t="inlineStr"/>
+      <c r="T111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>BCEWithLogits</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>200</v>
+      </c>
+      <c r="E112" t="n">
+        <v>10</v>
+      </c>
+      <c r="F112" t="n">
+        <v>50</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>TEST WITH PET DIMENSIONS - Higher learning rate</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Fused Images (RESAMPLED TO PET)</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>85.71428571428571</v>
+      </c>
+      <c r="J112" t="n">
+        <v>50</v>
+      </c>
+      <c r="K112" t="n">
+        <v>46.66666666666666</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>2024-05-16_01-57-47</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
+        <v>0</v>
+      </c>
+      <c r="N112" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="O112" t="inlineStr"/>
+      <c r="P112" t="inlineStr"/>
+      <c r="Q112" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="R112" t="inlineStr"/>
+      <c r="S112" t="inlineStr"/>
+      <c r="T112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>BCEWithLogits</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>200</v>
+      </c>
+      <c r="E113" t="n">
+        <v>10</v>
+      </c>
+      <c r="F113" t="n">
+        <v>50</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>TEST WITH PET DIMENSIONS - Higher learning rate</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Fused Images (RESAMPLED TO PET)</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>77.14285714285714</v>
+      </c>
+      <c r="J113" t="n">
+        <v>70</v>
+      </c>
+      <c r="K113" t="n">
+        <v>53.33333333333334</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>2024-05-16_03-24-56</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
+        <v>0</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="O113" t="inlineStr"/>
+      <c r="P113" t="inlineStr"/>
+      <c r="Q113" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="R113" t="inlineStr"/>
+      <c r="S113" t="inlineStr"/>
+      <c r="T113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>BCEWithLogits</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>200</v>
+      </c>
+      <c r="E114" t="n">
+        <v>10</v>
+      </c>
+      <c r="F114" t="n">
+        <v>50</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>TEST WITH PET DIMENSIONS - Higher learning rate</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Fused Images (RESAMPLED TO PET)</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>62.85714285714285</v>
+      </c>
+      <c r="J114" t="n">
+        <v>60</v>
+      </c>
+      <c r="K114" t="n">
+        <v>50</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>2024-05-16_04-56-00</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
+        <v>0</v>
+      </c>
+      <c r="N114" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="O114" t="inlineStr"/>
+      <c r="P114" t="inlineStr"/>
+      <c r="Q114" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="R114" t="inlineStr"/>
+      <c r="S114" t="inlineStr"/>
+      <c r="T114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>BCEWithLogits</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>200</v>
+      </c>
+      <c r="E115" t="n">
+        <v>10</v>
+      </c>
+      <c r="F115" t="n">
+        <v>50</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>TEST WITH PET DIMENSIONS - Higher learning rate</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Fused Images (RESAMPLED TO PET)</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>61.42857142857143</v>
+      </c>
+      <c r="J115" t="n">
+        <v>60</v>
+      </c>
+      <c r="K115" t="n">
+        <v>43.33333333333334</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>2024-05-16_06-13-19</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
+        <v>0</v>
+      </c>
+      <c r="N115" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="O115" t="inlineStr"/>
+      <c r="P115" t="inlineStr"/>
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="R115" t="inlineStr"/>
+      <c r="S115" t="inlineStr"/>
+      <c r="T115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>BCEWithLogits</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>200</v>
+      </c>
+      <c r="E116" t="n">
+        <v>10</v>
+      </c>
+      <c r="F116" t="n">
+        <v>50</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>TEST WITH PET DIMENSIONS - Higher learning rate</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Fused Images (RESAMPLED TO PET)</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>44.28571428571428</v>
+      </c>
+      <c r="J116" t="n">
+        <v>40</v>
+      </c>
+      <c r="K116" t="n">
+        <v>46.66666666666666</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>2024-05-16_07-37-44</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
+        <v>0</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="O116" t="inlineStr"/>
+      <c r="P116" t="inlineStr"/>
+      <c r="Q116" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="R116" t="inlineStr"/>
+      <c r="S116" t="inlineStr"/>
+      <c r="T116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>BCEWithLogits</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>200</v>
+      </c>
+      <c r="E117" t="n">
+        <v>10</v>
+      </c>
+      <c r="F117" t="n">
+        <v>50</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>TEST WITH PET DIMENSIONS - Higher learning rate</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Fused Images (RESAMPLED TO PET)</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
+        <v>75.71428571428571</v>
+      </c>
+      <c r="J117" t="n">
+        <v>30</v>
+      </c>
+      <c r="K117" t="n">
+        <v>30</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>2024-05-16_09-21-18</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>0</v>
+      </c>
+      <c r="N117" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="O117" t="inlineStr"/>
+      <c r="P117" t="inlineStr"/>
+      <c r="Q117" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="R117" t="inlineStr"/>
+      <c r="S117" t="inlineStr"/>
+      <c r="T117" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/reports/RESULTS.xlsx
+++ b/reports/RESULTS.xlsx
@@ -484,7 +484,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T117"/>
+  <dimension ref="A1:T121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K24" sqref="K24"/>
@@ -7535,6 +7535,262 @@
       <c r="S117" t="inlineStr"/>
       <c r="T117" t="inlineStr"/>
     </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>BCEWithLogits</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>200</v>
+      </c>
+      <c r="E118" t="n">
+        <v>10</v>
+      </c>
+      <c r="F118" t="n">
+        <v>50</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>TEST WITH PET DIMENSIONS - Higher learning rate</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Original PET (OLD)</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
+        <v>84.28571428571429</v>
+      </c>
+      <c r="J118" t="n">
+        <v>60</v>
+      </c>
+      <c r="K118" t="n">
+        <v>56.66666666666666</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>2024-05-16_15-08-11</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>0</v>
+      </c>
+      <c r="N118" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O118" t="inlineStr"/>
+      <c r="P118" t="inlineStr"/>
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="R118" t="inlineStr"/>
+      <c r="S118" t="inlineStr"/>
+      <c r="T118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>BCEWithLogits</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>200</v>
+      </c>
+      <c r="E119" t="n">
+        <v>10</v>
+      </c>
+      <c r="F119" t="n">
+        <v>50</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>TEST WITH PET DIMENSIONS - Higher learning rate</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Original PET (OLD)</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
+        <v>75.71428571428571</v>
+      </c>
+      <c r="J119" t="n">
+        <v>40</v>
+      </c>
+      <c r="K119" t="n">
+        <v>40</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>2024-05-16_15-11-44</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>0</v>
+      </c>
+      <c r="N119" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O119" t="inlineStr"/>
+      <c r="P119" t="inlineStr"/>
+      <c r="Q119" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="R119" t="inlineStr"/>
+      <c r="S119" t="inlineStr"/>
+      <c r="T119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>BCEWithLogits</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>200</v>
+      </c>
+      <c r="E120" t="n">
+        <v>10</v>
+      </c>
+      <c r="F120" t="n">
+        <v>50</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>TEST WITH PET DIMENSIONS - Higher learning rate</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Original PET (OLD)</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
+        <v>44.28571428571428</v>
+      </c>
+      <c r="J120" t="n">
+        <v>40</v>
+      </c>
+      <c r="K120" t="n">
+        <v>46.66666666666666</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>2024-05-16_15-15-00</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>0</v>
+      </c>
+      <c r="N120" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O120" t="inlineStr"/>
+      <c r="P120" t="inlineStr"/>
+      <c r="Q120" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="R120" t="inlineStr"/>
+      <c r="S120" t="inlineStr"/>
+      <c r="T120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>BCEWithLogits</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>200</v>
+      </c>
+      <c r="E121" t="n">
+        <v>10</v>
+      </c>
+      <c r="F121" t="n">
+        <v>50</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>TEST WITH PET DIMENSIONS - Higher learning rate</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Original PET (OLD)</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
+        <v>44.28571428571428</v>
+      </c>
+      <c r="J121" t="n">
+        <v>40</v>
+      </c>
+      <c r="K121" t="n">
+        <v>46.66666666666666</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>2024-05-16_15-18-25</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>0</v>
+      </c>
+      <c r="N121" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O121" t="inlineStr"/>
+      <c r="P121" t="inlineStr"/>
+      <c r="Q121" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="R121" t="inlineStr"/>
+      <c r="S121" t="inlineStr"/>
+      <c r="T121" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/reports/RESULTS.xlsx
+++ b/reports/RESULTS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github Folder\MasterThesis\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94E300C-E3E4-4DBD-8590-E3FE6099C895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622E6489-C14E-4574-A967-E721061A7F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="35314" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -499,7 +499,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -522,6 +522,7 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -829,7 +830,7 @@
   </sheetPr>
   <dimension ref="A1:T94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
       <selection activeCell="L56" sqref="A55:L56"/>
     </sheetView>
   </sheetViews>
@@ -3002,40 +3003,40 @@
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A55" t="s">
-        <v>35</v>
-      </c>
-      <c r="B55">
+      <c r="A55" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B55" s="8">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C55" t="s">
-        <v>53</v>
-      </c>
-      <c r="D55">
-        <v>200</v>
-      </c>
-      <c r="E55">
+      <c r="C55" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D55" s="8">
+        <v>200</v>
+      </c>
+      <c r="E55" s="8">
         <v>4</v>
       </c>
-      <c r="F55">
-        <v>50</v>
-      </c>
-      <c r="G55" t="s">
+      <c r="F55" s="8">
+        <v>50</v>
+      </c>
+      <c r="G55" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="H55" t="s">
+      <c r="H55" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="I55">
+      <c r="I55" s="8">
         <v>44.736842105263158</v>
       </c>
-      <c r="J55">
-        <v>50</v>
-      </c>
-      <c r="K55">
+      <c r="J55" s="8">
+        <v>50</v>
+      </c>
+      <c r="K55" s="8">
         <v>46.428571428571431</v>
       </c>
-      <c r="L55" t="s">
+      <c r="L55" s="8" t="s">
         <v>95</v>
       </c>
       <c r="M55">
@@ -3046,40 +3047,40 @@
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A56" t="s">
-        <v>35</v>
-      </c>
-      <c r="B56">
+      <c r="A56" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B56" s="8">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C56" t="s">
-        <v>53</v>
-      </c>
-      <c r="D56">
-        <v>200</v>
-      </c>
-      <c r="E56">
+      <c r="C56" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D56" s="8">
+        <v>200</v>
+      </c>
+      <c r="E56" s="8">
         <v>4</v>
       </c>
-      <c r="F56">
-        <v>50</v>
-      </c>
-      <c r="G56" t="s">
+      <c r="F56" s="8">
+        <v>50</v>
+      </c>
+      <c r="G56" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="H56" t="s">
+      <c r="H56" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="I56">
+      <c r="I56" s="8">
         <v>55.263157894736842</v>
       </c>
-      <c r="J56">
-        <v>50</v>
-      </c>
-      <c r="K56">
+      <c r="J56" s="8">
+        <v>50</v>
+      </c>
+      <c r="K56" s="8">
         <v>53.571428571428569</v>
       </c>
-      <c r="L56" t="s">
+      <c r="L56" s="8" t="s">
         <v>96</v>
       </c>
       <c r="M56">
